--- a/100runs/run025/NotionalETEOutput025.xlsx
+++ b/100runs/run025/NotionalETEOutput025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
   <si>
     <t>uniqueid</t>
   </si>
@@ -52,22 +52,19 @@
     <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
+    <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_125.MISSILE_SOMERSAULT_125</t>
+    <t>MISSILE_SOMERSAULT_296.MISSILE_SOMERSAULT_296</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_48.MISSILE_SOMERSAULT_48</t>
-  </si>
-  <si>
-    <t>MISSILE_HIGHWIND_222.MISSILE_HIGHWIND_222</t>
+    <t>MISSILE_BRAVER_272.MISSILE_BRAVER_272</t>
   </si>
   <si>
     <t>MISSILE_SOMERSAULT</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND</t>
+    <t>MISSILE_BRAVER</t>
   </si>
 </sst>
 </file>
@@ -425,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,28 +474,28 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>198.4301268149336</v>
+        <v>1116578.844530977</v>
       </c>
       <c r="G2">
-        <v>-100.2678021655614</v>
+        <v>4841124.035862283</v>
       </c>
       <c r="H2">
-        <v>1219.728532218396</v>
+        <v>3985228.108078867</v>
       </c>
       <c r="I2">
-        <v>-1237.215842110827</v>
+        <v>1114861.038465172</v>
       </c>
       <c r="J2">
-        <v>2573.69204131305</v>
+        <v>4843225.901485071</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984372.403042205</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -512,28 +509,28 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>198.4301268149336</v>
+        <v>1116578.844530977</v>
       </c>
       <c r="G3">
-        <v>-100.2678021655614</v>
+        <v>4841124.035862283</v>
       </c>
       <c r="H3">
-        <v>1219.728532218396</v>
+        <v>3985228.108078867</v>
       </c>
       <c r="I3">
-        <v>-1212.789907006768</v>
+        <v>1114890.652453163</v>
       </c>
       <c r="J3">
-        <v>2511.084938593842</v>
+        <v>4843177.249870448</v>
       </c>
       <c r="K3">
-        <v>249.115034841121</v>
+        <v>3984676.199192917</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -547,28 +544,28 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>198.4301268149336</v>
+        <v>1116578.844530977</v>
       </c>
       <c r="G4">
-        <v>-100.2678021655614</v>
+        <v>4841124.035862283</v>
       </c>
       <c r="H4">
-        <v>1219.728532218396</v>
+        <v>3985228.108078867</v>
       </c>
       <c r="I4">
-        <v>-1187.762505722219</v>
+        <v>1114920.995658365</v>
       </c>
       <c r="J4">
-        <v>2448.477835874634</v>
+        <v>4843128.598255824</v>
       </c>
       <c r="K4">
-        <v>485.8080521427381</v>
+        <v>3984964.846675003</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -582,28 +579,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>198.4301268149336</v>
+        <v>1116578.844530977</v>
       </c>
       <c r="G5">
-        <v>-100.2678021655614</v>
+        <v>4841124.035862283</v>
       </c>
       <c r="H5">
-        <v>1219.728532218396</v>
+        <v>3985228.108078867</v>
       </c>
       <c r="I5">
-        <v>-1162.118827705826</v>
+        <v>1114952.086037079</v>
       </c>
       <c r="J5">
-        <v>2385.870733155426</v>
+        <v>4843079.946641202</v>
       </c>
       <c r="K5">
-        <v>710.0790519048531</v>
+        <v>3985238.345488464</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -617,28 +614,28 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>198.4301268149336</v>
+        <v>1116578.844530977</v>
       </c>
       <c r="G6">
-        <v>-100.2678021655614</v>
+        <v>4841124.035862283</v>
       </c>
       <c r="H6">
-        <v>1219.728532218396</v>
+        <v>3985228.108078867</v>
       </c>
       <c r="I6">
-        <v>-1135.84369771003</v>
+        <v>1114983.941987766</v>
       </c>
       <c r="J6">
-        <v>2323.263630436218</v>
+        <v>4843031.295026579</v>
       </c>
       <c r="K6">
-        <v>921.9280341274645</v>
+        <v>3985496.695633298</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -652,28 +649,28 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>198.4301268149336</v>
+        <v>1116578.844530977</v>
       </c>
       <c r="G7">
-        <v>-100.2678021655614</v>
+        <v>4841124.035862283</v>
       </c>
       <c r="H7">
-        <v>1219.728532218396</v>
+        <v>3985228.108078867</v>
       </c>
       <c r="I7">
-        <v>-1108.921566810764</v>
+        <v>1115016.582361932</v>
       </c>
       <c r="J7">
-        <v>2260.65652771701</v>
+        <v>4842982.643411956</v>
       </c>
       <c r="K7">
-        <v>1121.354998810574</v>
+        <v>3985739.897109507</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -687,28 +684,28 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>198.4301268149336</v>
+        <v>1116578.844530977</v>
       </c>
       <c r="G8">
-        <v>-100.2678021655614</v>
+        <v>4841124.035862283</v>
       </c>
       <c r="H8">
-        <v>1219.728532218396</v>
+        <v>3985228.108078867</v>
       </c>
       <c r="I8">
-        <v>-1081.33650320601</v>
+        <v>1115050.026475283</v>
       </c>
       <c r="J8">
-        <v>2198.049424997801</v>
+        <v>4842933.991797333</v>
       </c>
       <c r="K8">
-        <v>1308.35994595418</v>
+        <v>3985967.949917088</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -722,28 +719,28 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>198.4301268149336</v>
+        <v>1116578.844530977</v>
       </c>
       <c r="G9">
-        <v>-100.2678021655614</v>
+        <v>4841124.035862283</v>
       </c>
       <c r="H9">
-        <v>1219.728532218396</v>
+        <v>3985228.108078867</v>
       </c>
       <c r="I9">
-        <v>-1053.072182787782</v>
+        <v>1115084.294119158</v>
       </c>
       <c r="J9">
-        <v>2135.442322278594</v>
+        <v>4842885.34018271</v>
       </c>
       <c r="K9">
-        <v>1482.942875558284</v>
+        <v>3986180.854056044</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -757,28 +754,28 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>198.4301268149336</v>
+        <v>1116578.844530977</v>
       </c>
       <c r="G10">
-        <v>-83.71076567507741</v>
+        <v>4841140.548679695</v>
       </c>
       <c r="H10">
-        <v>1219.728532218396</v>
+        <v>3985228.108078867</v>
       </c>
       <c r="I10">
-        <v>-1024.111879481953</v>
+        <v>1115119.405572237</v>
       </c>
       <c r="J10">
-        <v>2072.835219559386</v>
+        <v>4842836.688568086</v>
       </c>
       <c r="K10">
-        <v>1645.103787622884</v>
+        <v>3986378.609526374</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -792,28 +789,28 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>154.0049265642731</v>
+        <v>1116530.163952354</v>
       </c>
       <c r="G11">
-        <v>-67.15372918459339</v>
+        <v>4841157.061497105</v>
       </c>
       <c r="H11">
-        <v>1502.69734407169</v>
+        <v>3985427.362474628</v>
       </c>
       <c r="I11">
-        <v>-994.4384553502083</v>
+        <v>1115155.381612547</v>
       </c>
       <c r="J11">
-        <v>2010.228116840178</v>
+        <v>4842788.036953464</v>
       </c>
       <c r="K11">
-        <v>1794.842682147981</v>
+        <v>3986561.216328078</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -827,28 +824,28 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>127.9073500256288</v>
+        <v>1116501.566554495</v>
       </c>
       <c r="G12">
-        <v>-50.59669269410937</v>
+        <v>4841173.574314517</v>
       </c>
       <c r="H12">
-        <v>1671.248039985951</v>
+        <v>3985546.048583</v>
       </c>
       <c r="I12">
-        <v>-964.0343504482694</v>
+        <v>1115192.243529751</v>
       </c>
       <c r="J12">
-        <v>1947.62101412097</v>
+        <v>4842739.38533884</v>
       </c>
       <c r="K12">
-        <v>1932.159559133575</v>
+        <v>3986728.674461156</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -862,28 +859,28 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>111.4326450993513</v>
+        <v>1116483.513778955</v>
       </c>
       <c r="G13">
-        <v>-34.03965620362534</v>
+        <v>4841190.087131929</v>
       </c>
       <c r="H13">
-        <v>1791.699830449841</v>
+        <v>3985630.865522966</v>
       </c>
       <c r="I13">
-        <v>-932.8815724343832</v>
+        <v>1115230.013137755</v>
       </c>
       <c r="J13">
-        <v>1885.013911401762</v>
+        <v>4842690.733724218</v>
       </c>
       <c r="K13">
-        <v>2057.054418579668</v>
+        <v>3986880.983925607</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -897,28 +894,28 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>99.94325275851877</v>
+        <v>1116470.923846574</v>
       </c>
       <c r="G14">
-        <v>-17.48261971314132</v>
+        <v>4841206.599949339</v>
       </c>
       <c r="H14">
-        <v>1885.495575151979</v>
+        <v>3985696.912428677</v>
       </c>
       <c r="I14">
-        <v>-900.9616859219358</v>
+        <v>1115268.712787608</v>
       </c>
       <c r="J14">
-        <v>1822.406808682553</v>
+        <v>4842642.082109595</v>
       </c>
       <c r="K14">
-        <v>2169.527260486257</v>
+        <v>3987018.144721433</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -932,28 +929,28 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>91.37182200421422</v>
+        <v>1116461.531379992</v>
       </c>
       <c r="G15">
-        <v>-0.9255832226573054</v>
+        <v>4841223.112766751</v>
       </c>
       <c r="H15">
-        <v>1962.321565524158</v>
+        <v>3985751.009967519</v>
       </c>
       <c r="I15">
-        <v>-868.2558015698766</v>
+        <v>1115308.365380735</v>
       </c>
       <c r="J15">
-        <v>1759.799705963346</v>
+        <v>4842593.430494972</v>
       </c>
       <c r="K15">
-        <v>2269.578084853342</v>
+        <v>3987140.156848632</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -967,28 +964,28 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>84.67016011916672</v>
+        <v>1116454.187782744</v>
       </c>
       <c r="G16">
-        <v>15.63145326782672</v>
+        <v>4841239.625584162</v>
       </c>
       <c r="H16">
-        <v>2027.387571343906</v>
+        <v>3985796.82663399</v>
       </c>
       <c r="I16">
-        <v>-834.7445649045096</v>
+        <v>1115348.994382489</v>
       </c>
       <c r="J16">
-        <v>1697.192603244137</v>
+        <v>4842544.778880348</v>
       </c>
       <c r="K16">
-        <v>2357.206891680925</v>
+        <v>3987247.020307206</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1002,28 +999,28 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>79.24802769016109</v>
+        <v>1116448.246277865</v>
       </c>
       <c r="G17">
-        <v>32.18848975831074</v>
+        <v>4841256.138401574</v>
       </c>
       <c r="H17">
-        <v>2083.820481106835</v>
+        <v>3985836.564247694</v>
       </c>
       <c r="I17">
-        <v>-800.4081448660303</v>
+        <v>1115390.623836034</v>
       </c>
       <c r="J17">
-        <v>1634.58550052493</v>
+        <v>4842496.127265725</v>
       </c>
       <c r="K17">
-        <v>2432.413680969005</v>
+        <v>3987338.735097153</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1037,28 +1034,28 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>74.74572576006837</v>
+        <v>1116443.312711739</v>
       </c>
       <c r="G18">
-        <v>48.74552624879476</v>
+        <v>4841272.651218985</v>
       </c>
       <c r="H18">
-        <v>2133.645156182365</v>
+        <v>3985871.648628411</v>
       </c>
       <c r="I18">
-        <v>-765.2262220730308</v>
+        <v>1115433.278376573</v>
       </c>
       <c r="J18">
-        <v>1571.978397805721</v>
+        <v>4842447.475651103</v>
       </c>
       <c r="K18">
-        <v>2495.198452717582</v>
+        <v>3987415.301218474</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1072,28 +1069,28 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>70.93036363044433</v>
+        <v>1116439.131885652</v>
       </c>
       <c r="G19">
-        <v>65.3025627392788</v>
+        <v>4841289.164036397</v>
       </c>
       <c r="H19">
-        <v>2178.248266538465</v>
+        <v>3985903.056209144</v>
       </c>
       <c r="I19">
-        <v>-729.177976798029</v>
+        <v>1115476.983245931</v>
       </c>
       <c r="J19">
-        <v>1509.371295086513</v>
+        <v>4842398.82403648</v>
       </c>
       <c r="K19">
-        <v>2545.561206926657</v>
+        <v>3987476.718671169</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1107,28 +1104,28 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>67.64380138390014</v>
+        <v>1116435.530511862</v>
       </c>
       <c r="G20">
-        <v>81.85959922976281</v>
+        <v>4841305.676853809</v>
       </c>
       <c r="H20">
-        <v>2218.621165389055</v>
+        <v>3985931.485057937</v>
       </c>
       <c r="I20">
-        <v>-692.2420766469078</v>
+        <v>1115521.76430749</v>
       </c>
       <c r="J20">
-        <v>1446.764192367306</v>
+        <v>4842350.172421856</v>
       </c>
       <c r="K20">
-        <v>2583.501943596228</v>
+        <v>3987522.987455239</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1142,28 +1139,28 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>64.7744627202956</v>
+        <v>1116432.386326453</v>
       </c>
       <c r="G21">
-        <v>98.41663572024683</v>
+        <v>4841322.18967122</v>
       </c>
       <c r="H21">
-        <v>2255.497198624713</v>
+        <v>3985957.451565244</v>
       </c>
       <c r="I21">
-        <v>-654.3966639349705</v>
+        <v>1115567.648061492</v>
       </c>
       <c r="J21">
-        <v>1384.157089648098</v>
+        <v>4842301.520807234</v>
       </c>
       <c r="K21">
-        <v>2609.020662726297</v>
+        <v>3987554.107570681</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1177,28 +1174,28 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>62.24110787475335</v>
+        <v>1116429.610307908</v>
       </c>
       <c r="G22">
-        <v>114.9736722107309</v>
+        <v>4841338.702488631</v>
       </c>
       <c r="H22">
-        <v>2289.434132327636</v>
+        <v>3985981.348485808</v>
       </c>
       <c r="I22">
-        <v>-615.6193427521428</v>
+        <v>1115614.661660723</v>
       </c>
       <c r="J22">
-        <v>1321.54998692889</v>
+        <v>4842252.86919261</v>
       </c>
       <c r="K22">
-        <v>2622.117364316863</v>
+        <v>3987570.079017499</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1212,28 +1209,28 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>59.98300982649613</v>
+        <v>1116427.135912319</v>
       </c>
       <c r="G23">
-        <v>131.5307087012149</v>
+        <v>4841355.215306043</v>
       </c>
       <c r="H23">
-        <v>2320.8660840255</v>
+        <v>3986003.481506412</v>
       </c>
       <c r="I23">
-        <v>-575.8871657096693</v>
+        <v>1115662.832926584</v>
       </c>
       <c r="J23">
-        <v>1258.942884209682</v>
+        <v>4842204.217577988</v>
       </c>
       <c r="K23">
-        <v>2622.792048367925</v>
+        <v>3987570.901795689</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1247,28 +1244,28 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>57.9537521109719</v>
+        <v>1116424.912277102</v>
       </c>
       <c r="G24">
-        <v>148.0877451916989</v>
+        <v>4841371.728123454</v>
       </c>
       <c r="H24">
-        <v>2350.137569242089</v>
+        <v>3986024.093219985</v>
       </c>
       <c r="I24">
-        <v>-535.1766203604576</v>
+        <v>1115712.19036555</v>
       </c>
       <c r="J24">
-        <v>1196.335781490473</v>
+        <v>4842155.565963364</v>
       </c>
       <c r="K24">
-        <v>2611.044714879485</v>
+        <v>3987556.575905253</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1282,28 +1279,28 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>56.11717153293288</v>
+        <v>1116422.899775083</v>
       </c>
       <c r="G25">
-        <v>164.6447816821829</v>
+        <v>4841388.240940865</v>
       </c>
       <c r="H25">
-        <v>2377.526580631474</v>
+        <v>3986043.379376926</v>
       </c>
       <c r="I25">
-        <v>-493.4636152850362</v>
+        <v>1115762.763186043</v>
       </c>
       <c r="J25">
-        <v>1133.728678771266</v>
+        <v>4842106.914348741</v>
       </c>
       <c r="K25">
-        <v>2586.875363851542</v>
+        <v>3987527.101346192</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1317,28 +1314,28 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>54.44462198756184</v>
+        <v>1116421.067016216</v>
       </c>
       <c r="G26">
-        <v>181.201818172667</v>
+        <v>4841404.753758277</v>
       </c>
       <c r="H26">
-        <v>2403.26068381482</v>
+        <v>3986061.500219102</v>
       </c>
       <c r="I26">
-        <v>-450.7234658348938</v>
+        <v>1115814.581315714</v>
       </c>
       <c r="J26">
-        <v>1071.121576052057</v>
+        <v>4842058.262734119</v>
       </c>
       <c r="K26">
-        <v>2550.283995284096</v>
+        <v>3987482.478118504</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1352,28 +1349,28 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>52.91307991976339</v>
+        <v>1116419.38877158</v>
       </c>
       <c r="G27">
-        <v>197.758854663151</v>
+        <v>4841421.266575688</v>
       </c>
       <c r="H27">
-        <v>2427.528521484643</v>
+        <v>3986078.588580535</v>
       </c>
       <c r="I27">
-        <v>-406.9308795247582</v>
+        <v>1115867.675419157</v>
       </c>
       <c r="J27">
-        <v>1008.514473332849</v>
+        <v>4842009.611119495</v>
       </c>
       <c r="K27">
-        <v>2501.270609177147</v>
+        <v>3987422.706222191</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1387,28 +1384,28 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>51.50380193646059</v>
+        <v>1116417.844502398</v>
       </c>
       <c r="G28">
-        <v>214.315891153635</v>
+        <v>4841437.779393099</v>
       </c>
       <c r="H28">
-        <v>2450.488213176553</v>
+        <v>3986094.755802163</v>
       </c>
       <c r="I28">
-        <v>-362.0599410651764</v>
+        <v>1115922.076916051</v>
       </c>
       <c r="J28">
-        <v>945.9073706136414</v>
+        <v>4841960.959504872</v>
       </c>
       <c r="K28">
-        <v>2439.835205530696</v>
+        <v>3987347.785657251</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1422,28 +1419,28 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>50.20135410856889</v>
+        <v>1116416.417296363</v>
       </c>
       <c r="G29">
-        <v>230.872927644119</v>
+        <v>4841454.292210511</v>
       </c>
       <c r="H29">
-        <v>2472.273604670675</v>
+        <v>3986110.096132393</v>
       </c>
       <c r="I29">
-        <v>-316.0840970265332</v>
+        <v>1115977.817999758</v>
       </c>
       <c r="J29">
-        <v>883.3002678944333</v>
+        <v>4841912.307890249</v>
       </c>
       <c r="K29">
-        <v>2365.977784344741</v>
+        <v>3987257.716423686</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1457,28 +1454,28 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>48.99289724831021</v>
+        <v>1116415.093084455</v>
       </c>
       <c r="G30">
-        <v>247.429964134603</v>
+        <v>4841470.805027922</v>
       </c>
       <c r="H30">
-        <v>2492.998995572822</v>
+        <v>3986124.690056063</v>
       </c>
       <c r="I30">
-        <v>-268.9761401254396</v>
+        <v>1116034.93165637</v>
       </c>
       <c r="J30">
-        <v>820.6931651752252</v>
+        <v>4841863.656275626</v>
       </c>
       <c r="K30">
-        <v>2279.698345619283</v>
+        <v>3987152.498521494</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1492,28 +1489,28 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>47.86765208723426</v>
+        <v>1116413.860054886</v>
       </c>
       <c r="G31">
-        <v>263.9870006250871</v>
+        <v>4841487.317845333</v>
       </c>
       <c r="H31">
-        <v>2512.762769201167</v>
+        <v>3986138.606850449</v>
       </c>
       <c r="I31">
-        <v>-220.7081931241824</v>
+        <v>1116093.451684233</v>
       </c>
       <c r="J31">
-        <v>758.0860624560174</v>
+        <v>4841815.004661003</v>
       </c>
       <c r="K31">
-        <v>2180.996889354324</v>
+        <v>3987032.131950676</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1527,28 +1524,28 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>46.81649321180468</v>
+        <v>1116412.708208141</v>
       </c>
       <c r="G32">
-        <v>280.5440371155711</v>
+        <v>4841503.830662745</v>
       </c>
       <c r="H32">
-        <v>2531.650217101188</v>
+        <v>3986151.906574168</v>
       </c>
       <c r="I32">
-        <v>-171.2516923337162</v>
+        <v>1116153.412713944</v>
       </c>
       <c r="J32">
-        <v>695.4789597368093</v>
+        <v>4841766.35304638</v>
       </c>
       <c r="K32">
-        <v>2069.87341554986</v>
+        <v>3986896.616711232</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1562,28 +1559,28 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>45.83163667759221</v>
+        <v>1116411.629014672</v>
       </c>
       <c r="G33">
-        <v>297.1010736060551</v>
+        <v>4841520.343480156</v>
       </c>
       <c r="H33">
-        <v>2549.735763536503</v>
+        <v>3986164.641633567</v>
       </c>
       <c r="I33">
-        <v>-120.5773707104309</v>
+        <v>1116214.850228849</v>
       </c>
       <c r="J33">
-        <v>632.8718570176014</v>
+        <v>4841717.701431757</v>
       </c>
       <c r="K33">
-        <v>1946.327924205894</v>
+        <v>3986745.952803162</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1597,28 +1594,28 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>44.90639680144339</v>
+        <v>1116410.615148392</v>
       </c>
       <c r="G34">
-        <v>313.6581100965391</v>
+        <v>4841536.856297568</v>
       </c>
       <c r="H34">
-        <v>2567.084736700845</v>
+        <v>3986176.858029933</v>
       </c>
       <c r="I34">
-        <v>-68.65524053669323</v>
+        <v>1116277.800586037</v>
       </c>
       <c r="J34">
-        <v>570.2647542983933</v>
+        <v>4841669.049817135</v>
       </c>
       <c r="K34">
-        <v>1810.360415322425</v>
+        <v>3986580.140226466</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1632,28 +1629,28 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>44.03499473542116</v>
+        <v>1116409.660276911</v>
       </c>
       <c r="G35">
-        <v>330.2151465870232</v>
+        <v>4841553.369114979</v>
       </c>
       <c r="H35">
-        <v>2583.754793160798</v>
+        <v>3986188.596362527</v>
       </c>
       <c r="I35">
-        <v>-15.45457567491137</v>
+        <v>1116342.301037857</v>
       </c>
       <c r="J35">
-        <v>507.6576515791852</v>
+        <v>4841620.398202511</v>
       </c>
       <c r="K35">
-        <v>1661.970888899453</v>
+        <v>3986399.178981143</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1667,28 +1664,28 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>43.21240628387434</v>
+        <v>1116408.758894777</v>
       </c>
       <c r="G36">
-        <v>346.7721830775072</v>
+        <v>4841569.881932391</v>
       </c>
       <c r="H36">
-        <v>2599.797073937661</v>
+        <v>3986199.892642643</v>
       </c>
       <c r="I36">
-        <v>39.0561066153778</v>
+        <v>1116408.389753964</v>
       </c>
       <c r="J36">
-        <v>445.0505488599774</v>
+        <v>4841571.746587888</v>
       </c>
       <c r="K36">
-        <v>1501.159344936979</v>
+        <v>3986203.069067195</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1702,28 +1699,28 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>42.43423980110809</v>
+        <v>1116407.906189681</v>
       </c>
       <c r="G37">
-        <v>363.3292195679912</v>
+        <v>4841586.394749803</v>
       </c>
       <c r="H37">
-        <v>2615.257150701883</v>
+        <v>3986210.778959881</v>
       </c>
       <c r="I37">
-        <v>94.90906430815711</v>
+        <v>1116476.105843904</v>
       </c>
       <c r="J37">
-        <v>382.4434461407693</v>
+        <v>4841523.094973265</v>
       </c>
       <c r="K37">
-        <v>1327.925783435001</v>
+        <v>3985991.810484621</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1737,28 +1734,28 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>41.69663738905833</v>
+        <v>1116407.097934186</v>
       </c>
       <c r="G38">
-        <v>379.8862560584752</v>
+        <v>4841602.907567213</v>
       </c>
       <c r="H38">
-        <v>2630.175806208699</v>
+        <v>3986221.284031691</v>
       </c>
       <c r="I38">
-        <v>152.1373497003427</v>
+        <v>1116545.489380262</v>
       </c>
       <c r="J38">
-        <v>319.8363434215614</v>
+        <v>4841474.443358642</v>
       </c>
       <c r="K38">
-        <v>1142.270204393521</v>
+        <v>3985765.40323342</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1772,28 +1769,28 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>40.99619431827701</v>
+        <v>1116406.330397432</v>
       </c>
       <c r="G39">
-        <v>396.4432925489593</v>
+        <v>4841619.420384625</v>
       </c>
       <c r="H39">
-        <v>2644.589682644663</v>
+        <v>3986231.433659916</v>
       </c>
       <c r="I39">
-        <v>210.7748289712532</v>
+        <v>1116616.581422371</v>
       </c>
       <c r="J39">
-        <v>257.2292407023533</v>
+        <v>4841425.791744019</v>
       </c>
       <c r="K39">
-        <v>944.1926078125368</v>
+        <v>3985523.847313593</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1807,28 +1804,28 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>40.32989283005163</v>
+        <v>1116405.600272598</v>
       </c>
       <c r="G40">
-        <v>413.0003290394433</v>
+        <v>4841635.933202037</v>
       </c>
       <c r="H40">
-        <v>2658.531823836397</v>
+        <v>3986241.251112591</v>
       </c>
       <c r="I40">
-        <v>270.8562022237185</v>
+        <v>1116689.424040614</v>
       </c>
       <c r="J40">
-        <v>194.6221379831452</v>
+        <v>4841377.140129396</v>
       </c>
       <c r="K40">
-        <v>733.6929936920504</v>
+        <v>3985267.142725141</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1842,28 +1839,28 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>39.69504738255367</v>
+        <v>1116404.904616899</v>
       </c>
       <c r="G41">
-        <v>429.5573655299273</v>
+        <v>4841652.446019447</v>
       </c>
       <c r="H41">
-        <v>2672.032131512603</v>
+        <v>3986250.757445218</v>
       </c>
       <c r="I41">
-        <v>332.417024018675</v>
+        <v>1116764.060341317</v>
       </c>
       <c r="J41">
-        <v>132.0150352639374</v>
+        <v>4841328.488514774</v>
       </c>
       <c r="K41">
-        <v>510.7713620320616</v>
+        <v>3984995.289468062</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1877,28 +1874,28 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>39.08925907478267</v>
+        <v>1116404.240801651</v>
       </c>
       <c r="G42">
-        <v>446.1144020204113</v>
+        <v>4841668.958836859</v>
       </c>
       <c r="H42">
-        <v>2685.117751466567</v>
+        <v>3986259.971772692</v>
       </c>
       <c r="I42">
-        <v>395.4937244154161</v>
+        <v>1116840.53449226</v>
       </c>
       <c r="J42">
-        <v>69.40793254472923</v>
+        <v>4841279.83690015</v>
       </c>
       <c r="K42">
-        <v>275.4277128325692</v>
+        <v>3984708.287542357</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1912,28 +1909,28 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>38.5103774844488</v>
+        <v>1116403.606470446</v>
       </c>
       <c r="G43">
-        <v>462.6714385108954</v>
+        <v>4841685.471654271</v>
       </c>
       <c r="H43">
-        <v>2697.813402158778</v>
+        <v>3986268.911500681</v>
       </c>
       <c r="I43">
-        <v>460.1236305299262</v>
+        <v>1116918.891748815</v>
       </c>
       <c r="J43">
-        <v>6.800829825521111</v>
+        <v>4841231.185285526</v>
       </c>
       <c r="K43">
-        <v>27.66204609357402</v>
+        <v>3984406.136948026</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1947,28 +1944,28 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>37.9564685357565</v>
+        <v>1116402.99950395</v>
       </c>
       <c r="G44">
-        <v>479.2284750013794</v>
+        <v>4841701.984471682</v>
       </c>
       <c r="H44">
-        <v>2710.14165575792</v>
+        <v>3986277.592523532</v>
       </c>
       <c r="I44">
-        <v>526.344988624082</v>
+        <v>1116999.178480726</v>
       </c>
       <c r="J44">
-        <v>-55.80627289368672</v>
+        <v>4841182.533670904</v>
       </c>
       <c r="K44">
-        <v>-232.5256381849233</v>
+        <v>3984088.837685069</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1982,28 +1979,28 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>37.42578730278461</v>
+        <v>1116402.417990095</v>
       </c>
       <c r="G45">
-        <v>495.7855114918634</v>
+        <v>4841718.497289093</v>
       </c>
       <c r="H45">
-        <v>2722.123179649182</v>
+        <v>3986286.029394322</v>
       </c>
       <c r="I45">
-        <v>594.1969867387745</v>
+        <v>1117081.442199547</v>
       </c>
       <c r="J45">
-        <v>-118.4133756128948</v>
+        <v>4841133.882056281</v>
       </c>
       <c r="K45">
-        <v>-505.1353400029242</v>
+        <v>3983756.389753486</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2017,28 +2014,28 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>36.91675487703059</v>
+        <v>1116401.860198731</v>
       </c>
       <c r="G46">
-        <v>512.3425479823475</v>
+        <v>4841735.010106504</v>
       </c>
       <c r="H46">
-        <v>2733.776944900736</v>
+        <v>3986294.235471657</v>
       </c>
       <c r="I46">
-        <v>663.7197778843481</v>
+        <v>1117165.731586764</v>
       </c>
       <c r="J46">
-        <v>-181.020478332103</v>
+        <v>4841085.230441658</v>
       </c>
       <c r="K46">
-        <v>-790.1670593604288</v>
+        <v>3983408.793153277</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2052,28 +2049,28 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>36.42793860049056</v>
+        <v>1116401.324559971</v>
       </c>
       <c r="G47">
-        <v>528.8995844728314</v>
+        <v>4841751.522923916</v>
       </c>
       <c r="H47">
-        <v>2745.120406968938</v>
+        <v>3986302.223046915</v>
       </c>
       <c r="I47">
-        <v>734.9545038020863</v>
+        <v>1117252.096522595</v>
       </c>
       <c r="J47">
-        <v>-243.6275810513111</v>
+        <v>4841036.578827035</v>
       </c>
       <c r="K47">
-        <v>-1087.620796257436</v>
+        <v>3983046.047884442</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2087,28 +2084,28 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>35.95803510061789</v>
+        <v>1116400.809645595</v>
       </c>
       <c r="G48">
-        <v>545.4566209633155</v>
+        <v>4841768.035741328</v>
       </c>
       <c r="H48">
-        <v>2756.16966296374</v>
+        <v>3986310.003454983</v>
       </c>
       <c r="I48">
-        <v>807.9433193108022</v>
+        <v>1117340.588115518</v>
       </c>
       <c r="J48">
-        <v>-306.2346837705186</v>
+        <v>4840987.927212412</v>
       </c>
       <c r="K48">
-        <v>-1397.496550693943</v>
+        <v>3982668.15394698</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2122,28 +2119,28 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>35.5058556696732</v>
+        <v>1116400.314153032</v>
       </c>
       <c r="G49">
-        <v>562.0136574537995</v>
+        <v>4841784.548558739</v>
       </c>
       <c r="H49">
-        <v>2766.939589030759</v>
+        <v>3986317.587171</v>
       </c>
       <c r="I49">
-        <v>882.7294172529421</v>
+        <v>1117431.258732505</v>
       </c>
       <c r="J49">
-        <v>-368.8417864897268</v>
+        <v>4840939.275597789</v>
       </c>
       <c r="K49">
-        <v>-1719.794322669956</v>
+        <v>3982275.111340893</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2157,28 +2154,28 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>35.07031361504048</v>
+        <v>1116399.836891497</v>
       </c>
       <c r="G50">
-        <v>578.5706939442834</v>
+        <v>4841801.061376151</v>
       </c>
       <c r="H50">
-        <v>2777.443960792422</v>
+        <v>3986324.983895164</v>
       </c>
       <c r="I50">
-        <v>959.3570540549581</v>
+        <v>1117524.16203002</v>
       </c>
       <c r="J50">
-        <v>-431.4488892089349</v>
+        <v>4840890.623983165</v>
       </c>
       <c r="K50">
-        <v>-2054.514112185472</v>
+        <v>3981866.920066179</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2192,28 +2189,28 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>34.65041327406315</v>
+        <v>1116399.376769957</v>
       </c>
       <c r="G51">
-        <v>595.1277304347675</v>
+        <v>4841817.574193562</v>
       </c>
       <c r="H51">
-        <v>2787.695559294815</v>
+        <v>3986332.202627334</v>
       </c>
       <c r="I51">
-        <v>1037.87157591709</v>
+        <v>1117619.352985767</v>
       </c>
       <c r="J51">
-        <v>-494.055991928143</v>
+        <v>4840841.972368542</v>
       </c>
       <c r="K51">
-        <v>-2401.65591924049</v>
+        <v>3981443.58012284</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2227,28 +2224,28 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>34.24524044063908</v>
+        <v>1116398.932786636</v>
       </c>
       <c r="G52">
-        <v>611.6847669252516</v>
+        <v>4841834.087010973</v>
       </c>
       <c r="H52">
-        <v>2797.706264504261</v>
+        <v>3986339.251732868</v>
       </c>
       <c r="I52">
-        <v>1118.319445648043</v>
+        <v>1117716.887931225</v>
       </c>
       <c r="J52">
-        <v>-556.6630946473512</v>
+        <v>4840793.32075392</v>
       </c>
       <c r="K52">
-        <v>-2761.219743835011</v>
+        <v>3981005.091510874</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2262,28 +2259,28 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>33.85395399408063</v>
+        <v>1116398.504019843</v>
       </c>
       <c r="G53">
-        <v>628.2418034157356</v>
+        <v>4841850.599828385</v>
       </c>
       <c r="H53">
-        <v>2807.487138069106</v>
+        <v>3986346.139000901</v>
       </c>
       <c r="I53">
-        <v>1200.748270160436</v>
+        <v>1117816.824584984</v>
       </c>
       <c r="J53">
-        <v>-619.2701973665587</v>
+        <v>4840744.669139297</v>
       </c>
       <c r="K53">
-        <v>-3133.205585969033</v>
+        <v>3980551.454230282</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2297,28 +2294,28 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>33.47577855581218</v>
+        <v>1116398.089619929</v>
       </c>
       <c r="G54">
-        <v>644.7988399062195</v>
+        <v>4841867.112645797</v>
       </c>
       <c r="H54">
-        <v>2817.048496792586</v>
+        <v>3986352.871696079</v>
       </c>
       <c r="I54">
-        <v>1285.206828643319</v>
+        <v>1117919.222086903</v>
       </c>
       <c r="J54">
-        <v>-681.8773000857668</v>
+        <v>4840696.017524674</v>
       </c>
       <c r="K54">
-        <v>-3517.61344564256</v>
+        <v>3980082.668281064</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2326,7 +2323,7 @@
         <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -2338,22 +2335,22 @@
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>111.0964489886675</v>
+        <v>1116581.552633364</v>
       </c>
       <c r="G55">
-        <v>-98.02979243143942</v>
+        <v>4841131.245219795</v>
       </c>
       <c r="H55">
-        <v>1040.852981358482</v>
+        <v>3985225.083237709</v>
       </c>
       <c r="I55">
-        <v>-918.1238522110997</v>
+        <v>1114862.117777171</v>
       </c>
       <c r="J55">
-        <v>1403.162567156542</v>
+        <v>4843232.807364848</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984365.484315031</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2361,7 +2358,7 @@
         <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -2373,22 +2370,22 @@
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>111.0964489886675</v>
+        <v>1116581.552633364</v>
       </c>
       <c r="G56">
-        <v>-98.02979243143942</v>
+        <v>4841131.245219795</v>
       </c>
       <c r="H56">
-        <v>1040.852981358482</v>
+        <v>3985225.083237709</v>
       </c>
       <c r="I56">
-        <v>-899.9976426458101</v>
+        <v>1114891.731793832</v>
       </c>
       <c r="J56">
-        <v>1369.029523434303</v>
+        <v>4843184.155680854</v>
       </c>
       <c r="K56">
-        <v>264.0835940825945</v>
+        <v>3984669.279938212</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2396,7 +2393,7 @@
         <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -2408,22 +2405,22 @@
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>111.0964489886675</v>
+        <v>1116581.552633364</v>
       </c>
       <c r="G57">
-        <v>-98.02979243143942</v>
+        <v>4841131.245219795</v>
       </c>
       <c r="H57">
-        <v>1040.852981358482</v>
+        <v>3985225.083237709</v>
       </c>
       <c r="I57">
-        <v>-881.4250918457823</v>
+        <v>1114922.075028409</v>
       </c>
       <c r="J57">
-        <v>1334.896479712064</v>
+        <v>4843135.503996858</v>
       </c>
       <c r="K57">
-        <v>514.998769648493</v>
+        <v>3984957.926919071</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2431,7 +2428,7 @@
         <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -2443,22 +2440,22 @@
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>111.0964489886675</v>
+        <v>1116581.552633364</v>
       </c>
       <c r="G58">
-        <v>-98.02979243143942</v>
+        <v>4841131.245219795</v>
       </c>
       <c r="H58">
-        <v>1040.852981358482</v>
+        <v>3985225.083237709</v>
       </c>
       <c r="I58">
-        <v>-862.3952090687371</v>
+        <v>1114953.165437222</v>
       </c>
       <c r="J58">
-        <v>1300.763435989825</v>
+        <v>4843086.852312865</v>
       </c>
       <c r="K58">
-        <v>752.7455266976972</v>
+        <v>3985231.42525761</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2466,7 +2463,7 @@
         <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -2478,22 +2475,22 @@
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>111.0964489886675</v>
+        <v>1116581.552633364</v>
       </c>
       <c r="G59">
-        <v>-98.02979243143942</v>
+        <v>4841131.245219795</v>
       </c>
       <c r="H59">
-        <v>1040.852981358482</v>
+        <v>3985225.083237709</v>
       </c>
       <c r="I59">
-        <v>-842.8967329354786</v>
+        <v>1114985.021418749</v>
       </c>
       <c r="J59">
-        <v>1266.630392267586</v>
+        <v>4843038.20062887</v>
       </c>
       <c r="K59">
-        <v>977.3238652302055</v>
+        <v>3985489.774953829</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2501,7 +2498,7 @@
         <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -2513,22 +2510,22 @@
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>111.0964489886675</v>
+        <v>1116581.552633364</v>
       </c>
       <c r="G60">
-        <v>-98.02979243143942</v>
+        <v>4841131.245219795</v>
       </c>
       <c r="H60">
-        <v>1040.852981358482</v>
+        <v>3985225.083237709</v>
       </c>
       <c r="I60">
-        <v>-822.9181247657073</v>
+        <v>1115017.661824515</v>
       </c>
       <c r="J60">
-        <v>1232.497348545347</v>
+        <v>4842989.548944876</v>
       </c>
       <c r="K60">
-        <v>1188.73378524602</v>
+        <v>3985732.976007726</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2536,7 +2533,7 @@
         <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -2548,22 +2545,22 @@
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>111.0964489886675</v>
+        <v>1116581.552633364</v>
       </c>
       <c r="G61">
-        <v>-98.02979243143942</v>
+        <v>4841131.245219795</v>
       </c>
       <c r="H61">
-        <v>1040.852981358482</v>
+        <v>3985225.083237709</v>
       </c>
       <c r="I61">
-        <v>-802.447561749738</v>
+        <v>1115051.105970243</v>
       </c>
       <c r="J61">
-        <v>1198.364304823107</v>
+        <v>4842940.89726088</v>
       </c>
       <c r="K61">
-        <v>1386.975286745139</v>
+        <v>3985961.028419302</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2571,7 +2568,7 @@
         <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -2583,22 +2580,22 @@
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>111.0964489886675</v>
+        <v>1116581.552633364</v>
       </c>
       <c r="G62">
-        <v>-98.02979243143942</v>
+        <v>4841131.245219795</v>
       </c>
       <c r="H62">
-        <v>1040.852981358482</v>
+        <v>3985225.083237709</v>
       </c>
       <c r="I62">
-        <v>-781.4729299520733</v>
+        <v>1115085.373647293</v>
       </c>
       <c r="J62">
-        <v>1164.231261100868</v>
+        <v>4842892.245576886</v>
       </c>
       <c r="K62">
-        <v>1572.048369727563</v>
+        <v>3986173.932188557</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2606,7 +2603,7 @@
         <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -2618,22 +2615,22 @@
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>111.0964489886675</v>
+        <v>1116581.552633364</v>
       </c>
       <c r="G63">
-        <v>-81.84231434388849</v>
+        <v>4841147.758061798</v>
       </c>
       <c r="H63">
-        <v>1040.852981358482</v>
+        <v>3985225.083237709</v>
       </c>
       <c r="I63">
-        <v>-759.9818171426984</v>
+        <v>1115120.485134364</v>
       </c>
       <c r="J63">
-        <v>1130.098217378629</v>
+        <v>4842843.593892892</v>
       </c>
       <c r="K63">
-        <v>1743.953034193291</v>
+        <v>3986371.687315491</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2641,7 +2638,7 @@
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -2653,22 +2650,22 @@
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>86.22380453351411</v>
+        <v>1116532.871936673</v>
       </c>
       <c r="G64">
-        <v>-65.65483625633756</v>
+        <v>4841164.2709038</v>
       </c>
       <c r="H64">
-        <v>1282.323869075841</v>
+        <v>3985424.337482234</v>
       </c>
       <c r="I64">
-        <v>-737.9615054518539</v>
+        <v>1115156.461209502</v>
       </c>
       <c r="J64">
-        <v>1095.96517365639</v>
+        <v>4842794.942208897</v>
       </c>
       <c r="K64">
-        <v>1902.689280142324</v>
+        <v>3986554.293800104</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2676,7 +2673,7 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -2688,22 +2685,22 @@
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>71.61237366264932</v>
+        <v>1116504.274469455</v>
       </c>
       <c r="G65">
-        <v>-49.46735816878665</v>
+        <v>4841180.783745802</v>
       </c>
       <c r="H65">
-        <v>1426.156279090329</v>
+        <v>3985543.023500521</v>
       </c>
       <c r="I65">
-        <v>-715.3989638439377</v>
+        <v>1115193.323162394</v>
       </c>
       <c r="J65">
-        <v>1061.832129934151</v>
+        <v>4842746.290524902</v>
       </c>
       <c r="K65">
-        <v>2048.257107574663</v>
+        <v>3986721.751642397</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2711,7 +2708,7 @@
         <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -2723,22 +2720,22 @@
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>62.38856654815529</v>
+        <v>1116486.22165013</v>
       </c>
       <c r="G66">
-        <v>-33.27988008123572</v>
+        <v>4841197.296587804</v>
       </c>
       <c r="H66">
-        <v>1528.943581266728</v>
+        <v>3985627.84037611</v>
       </c>
       <c r="I66">
-        <v>-692.2808404060838</v>
+        <v>1115231.092806963</v>
       </c>
       <c r="J66">
-        <v>1027.699086211912</v>
+        <v>4842697.638840907</v>
       </c>
       <c r="K66">
-        <v>2180.656516490307</v>
+        <v>3986874.060842368</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2746,7 +2743,7 @@
         <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -2758,22 +2755,22 @@
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>55.95592090813835</v>
+        <v>1116473.631687214</v>
       </c>
       <c r="G67">
-        <v>-17.09240199368479</v>
+        <v>4841213.809429806</v>
       </c>
       <c r="H67">
-        <v>1608.983998403152</v>
+        <v>3985693.88723169</v>
       </c>
       <c r="I67">
-        <v>-668.5934544468568</v>
+        <v>1115269.792494281</v>
       </c>
       <c r="J67">
-        <v>993.5660424896726</v>
+        <v>4842648.987156914</v>
       </c>
       <c r="K67">
-        <v>2299.887506889256</v>
+        <v>3987011.221400019</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2781,7 +2778,7 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -2793,22 +2790,22 @@
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>51.15697462492796</v>
+        <v>1116464.239197852</v>
       </c>
       <c r="G68">
-        <v>-0.9049239061338746</v>
+        <v>4841230.322271809</v>
       </c>
       <c r="H68">
-        <v>1674.543308538551</v>
+        <v>3985747.984729472</v>
       </c>
       <c r="I68">
-        <v>-644.3227884003792</v>
+        <v>1115309.445125797</v>
       </c>
       <c r="J68">
-        <v>959.4329987674334</v>
+        <v>4842600.335472919</v>
       </c>
       <c r="K68">
-        <v>2405.950078771509</v>
+        <v>3987133.233315349</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2816,7 +2813,7 @@
         <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -2828,22 +2825,22 @@
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>47.40486878443799</v>
+        <v>1116456.895582794</v>
       </c>
       <c r="G69">
-        <v>15.28255418141705</v>
+        <v>4841246.83511381</v>
       </c>
       <c r="H69">
-        <v>1730.067258625542</v>
+        <v>3985793.801361167</v>
       </c>
       <c r="I69">
-        <v>-619.4544795311103</v>
+        <v>1115350.074166884</v>
       </c>
       <c r="J69">
-        <v>925.2999550451942</v>
+        <v>4842551.683788924</v>
       </c>
       <c r="K69">
-        <v>2498.844232137067</v>
+        <v>3987240.096588357</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2851,7 +2848,7 @@
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -2863,22 +2860,22 @@
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>44.36914195969714</v>
+        <v>1116450.954063505</v>
       </c>
       <c r="G70">
-        <v>31.47003226896798</v>
+        <v>4841263.347955813</v>
       </c>
       <c r="H70">
-        <v>1778.224172907647</v>
+        <v>3985833.53894471</v>
       </c>
       <c r="I70">
-        <v>-593.9738114343604</v>
+        <v>1115391.703660731</v>
       </c>
       <c r="J70">
-        <v>891.1669113229552</v>
+        <v>4842503.032104929</v>
       </c>
       <c r="K70">
-        <v>2578.56996698593</v>
+        <v>3987331.811219044</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2886,7 +2883,7 @@
         <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -2898,22 +2895,22 @@
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>41.84840700509707</v>
+        <v>1116446.020485413</v>
       </c>
       <c r="G71">
-        <v>47.6575103565189</v>
+        <v>4841279.860797815</v>
       </c>
       <c r="H71">
-        <v>1820.741962913971</v>
+        <v>3985868.623298797</v>
       </c>
       <c r="I71">
-        <v>-567.865705327513</v>
+        <v>1115434.358242564</v>
       </c>
       <c r="J71">
-        <v>857.033867600716</v>
+        <v>4842454.380420935</v>
       </c>
       <c r="K71">
-        <v>2645.127283318099</v>
+        <v>3987408.377207411</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2921,7 +2918,7 @@
         <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -2933,22 +2930,22 @@
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>39.71227379281326</v>
+        <v>1116441.839649186</v>
       </c>
       <c r="G72">
-        <v>63.84498844406984</v>
+        <v>4841296.373639816</v>
       </c>
       <c r="H72">
-        <v>1858.803940776841</v>
+        <v>3985900.030855692</v>
       </c>
       <c r="I72">
-        <v>-541.1147111268014</v>
+        <v>1115478.063154234</v>
       </c>
       <c r="J72">
-        <v>822.9008238784768</v>
+        <v>4842405.728736941</v>
       </c>
       <c r="K72">
-        <v>2698.516181133572</v>
+        <v>3987469.794553457</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2956,7 +2953,7 @@
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -2968,22 +2965,22 @@
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>37.87220343236939</v>
+        <v>1116438.238266661</v>
       </c>
       <c r="G73">
-        <v>80.03246653162076</v>
+        <v>4841312.886481819</v>
       </c>
       <c r="H73">
-        <v>1893.256075841922</v>
+        <v>3985928.459682907</v>
       </c>
       <c r="I73">
-        <v>-513.7049983043605</v>
+        <v>1115522.844259146</v>
       </c>
       <c r="J73">
-        <v>788.7677801562377</v>
+        <v>4842357.077052945</v>
       </c>
       <c r="K73">
-        <v>2738.736660432351</v>
+        <v>3987516.063257182</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2991,7 +2988,7 @@
         <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -3003,22 +3000,22 @@
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>36.26572692807497</v>
+        <v>1116435.094073626</v>
       </c>
       <c r="G74">
-        <v>96.21994461917167</v>
+        <v>4841329.399323822</v>
       </c>
       <c r="H74">
-        <v>1924.72416740505</v>
+        <v>3985954.426170505</v>
       </c>
       <c r="I74">
-        <v>-485.6203465201408</v>
+        <v>1115568.728057568</v>
       </c>
       <c r="J74">
-        <v>754.6347364339985</v>
+        <v>4842308.425368951</v>
       </c>
       <c r="K74">
-        <v>2765.788721214434</v>
+        <v>3987547.183318586</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3026,7 +3023,7 @@
         <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -3038,22 +3035,22 @@
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>34.84736001028092</v>
+        <v>1116432.318048349</v>
       </c>
       <c r="G75">
-        <v>112.4074227067226</v>
+        <v>4841345.912165823</v>
       </c>
       <c r="H75">
-        <v>1953.684184072536</v>
+        <v>3985978.323072931</v>
       </c>
       <c r="I75">
-        <v>-456.8441360231403</v>
+        <v>1115615.741702314</v>
       </c>
       <c r="J75">
-        <v>720.5016927117595</v>
+        <v>4842259.773684956</v>
       </c>
       <c r="K75">
-        <v>2779.672363479822</v>
+        <v>3987563.154737669</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3061,7 +3058,7 @@
         <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3073,22 +3070,22 @@
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>33.58310302140347</v>
+        <v>1116429.843646758</v>
       </c>
       <c r="G76">
-        <v>128.5949007942735</v>
+        <v>4841362.425007826</v>
       </c>
       <c r="H76">
-        <v>1980.506579196093</v>
+        <v>3986000.456076736</v>
       </c>
       <c r="I76">
-        <v>-427.3593378162794</v>
+        <v>1115663.913014811</v>
       </c>
       <c r="J76">
-        <v>686.3686489895202</v>
+        <v>4842211.122000962</v>
       </c>
       <c r="K76">
-        <v>2780.387587228515</v>
+        <v>3987563.977514431</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3096,7 +3093,7 @@
         <v>25</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -3108,22 +3105,22 @@
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>32.44696845405596</v>
+        <v>1116427.620006149</v>
       </c>
       <c r="G77">
-        <v>144.7823788818245</v>
+        <v>4841378.937849828</v>
       </c>
       <c r="H77">
-        <v>2005.485344430898</v>
+        <v>3986021.067774664</v>
       </c>
       <c r="I77">
-        <v>-397.1485035790917</v>
+        <v>1115713.270501561</v>
       </c>
       <c r="J77">
-        <v>652.235605267281</v>
+        <v>4842162.470316967</v>
       </c>
       <c r="K77">
-        <v>2767.934392460513</v>
+        <v>3987549.651648872</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3131,7 +3128,7 @@
         <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -3143,22 +3140,22 @@
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>31.41870936972857</v>
+        <v>1116425.607499248</v>
       </c>
       <c r="G78">
-        <v>160.9698569693754</v>
+        <v>4841395.450691829</v>
       </c>
       <c r="H78">
-        <v>2028.857704270061</v>
+        <v>3986040.353916967</v>
       </c>
       <c r="I78">
-        <v>-366.1937553422707</v>
+        <v>1115763.843371013</v>
       </c>
       <c r="J78">
-        <v>618.102561545042</v>
+        <v>4842113.818632972</v>
       </c>
       <c r="K78">
-        <v>2742.312779175816</v>
+        <v>3987520.177140992</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3166,7 +3163,7 @@
         <v>25</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -3178,22 +3175,22 @@
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>30.48228747537766</v>
+        <v>1116423.774735937</v>
       </c>
       <c r="G79">
-        <v>177.1573350569263</v>
+        <v>4841411.963533832</v>
       </c>
       <c r="H79">
-        <v>2050.817851395796</v>
+        <v>3986058.474745389</v>
       </c>
       <c r="I79">
-        <v>-334.4767749079644</v>
+        <v>1115815.66155085</v>
       </c>
       <c r="J79">
-        <v>583.9695178228028</v>
+        <v>4842065.166948978</v>
       </c>
       <c r="K79">
-        <v>2703.522747374423</v>
+        <v>3987475.553990791</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3201,7 +3198,7 @@
         <v>25</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3213,22 +3210,22 @@
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>29.62481241380166</v>
+        <v>1116422.09648723</v>
       </c>
       <c r="G80">
-        <v>193.3448131444772</v>
+        <v>4841428.476375834</v>
       </c>
       <c r="H80">
-        <v>2071.526763684515</v>
+        <v>3986075.563093851</v>
       </c>
       <c r="I80">
-        <v>-301.9787930095504</v>
+        <v>1115868.755705694</v>
       </c>
       <c r="J80">
-        <v>549.8364741005636</v>
+        <v>4842016.515264983</v>
       </c>
       <c r="K80">
-        <v>2651.564297056336</v>
+        <v>3987415.782198269</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3236,7 +3233,7 @@
         <v>25</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -3248,22 +3245,22 @@
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>28.83579019174324</v>
+        <v>1116420.552214302</v>
       </c>
       <c r="G81">
-        <v>209.5322912320282</v>
+        <v>4841444.989217836</v>
       </c>
       <c r="H81">
-        <v>2091.119372135784</v>
+        <v>3986091.730303208</v>
       </c>
       <c r="I81">
-        <v>-268.6805782044831</v>
+        <v>1115923.157255255</v>
       </c>
       <c r="J81">
-        <v>515.7034303783245</v>
+        <v>4841967.863580989</v>
       </c>
       <c r="K81">
-        <v>2586.437428221554</v>
+        <v>3987340.861763427</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3271,7 +3268,7 @@
         <v>25</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -3283,22 +3280,22 @@
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>28.10657970846454</v>
+        <v>1116419.125004806</v>
       </c>
       <c r="G82">
-        <v>225.7197693195791</v>
+        <v>4841461.502059839</v>
       </c>
       <c r="H82">
-        <v>2109.709893786925</v>
+        <v>3986107.070621795</v>
       </c>
       <c r="I82">
-        <v>-234.5624254936366</v>
+        <v>1115978.898392926</v>
       </c>
       <c r="J82">
-        <v>481.5703866560852</v>
+        <v>4841919.211896994</v>
       </c>
       <c r="K82">
-        <v>2508.142140870077</v>
+        <v>3987250.792686264</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3306,7 +3303,7 @@
         <v>25</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -3318,22 +3315,22 @@
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>27.42999259900839</v>
+        <v>1116417.800789686</v>
       </c>
       <c r="G83">
-        <v>241.90724740713</v>
+        <v>4841478.01490184</v>
       </c>
       <c r="H83">
-        <v>2127.39586598525</v>
+        <v>3986121.664534387</v>
       </c>
       <c r="I83">
-        <v>-199.6041446604106</v>
+        <v>1116036.01210483</v>
       </c>
       <c r="J83">
-        <v>447.4373429338461</v>
+        <v>4841870.560213</v>
       </c>
       <c r="K83">
-        <v>2416.678435001904</v>
+        <v>3987145.574966779</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3341,7 +3338,7 @@
         <v>25</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -3353,22 +3350,22 @@
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>26.79999379971412</v>
+        <v>1116416.567757126</v>
       </c>
       <c r="G84">
-        <v>258.0947254946809</v>
+        <v>4841494.527743842</v>
       </c>
       <c r="H84">
-        <v>2144.261243944838</v>
+        <v>3986135.58131821</v>
       </c>
       <c r="I84">
-        <v>-163.7850483226951</v>
+        <v>1116094.532189347</v>
       </c>
       <c r="J84">
-        <v>413.304299211607</v>
+        <v>4841821.908529005</v>
       </c>
       <c r="K84">
-        <v>2312.046310617037</v>
+        <v>3987025.208604974</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3376,7 +3373,7 @@
         <v>25</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -3388,22 +3385,22 @@
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>26.21147420212266</v>
+        <v>1116415.415907588</v>
       </c>
       <c r="G85">
-        <v>274.2822035822319</v>
+        <v>4841511.040585845</v>
       </c>
       <c r="H85">
-        <v>2160.378811040882</v>
+        <v>3986148.881031835</v>
       </c>
       <c r="I85">
-        <v>-127.0839396906277</v>
+        <v>1116154.493277107</v>
       </c>
       <c r="J85">
-        <v>379.1712554893678</v>
+        <v>4841773.25684501</v>
       </c>
       <c r="K85">
-        <v>2194.245767715474</v>
+        <v>3986889.693600847</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3411,7 +3408,7 @@
         <v>25</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -3423,22 +3420,22 @@
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>25.66007575537199</v>
+        <v>1116414.336711502</v>
       </c>
       <c r="G86">
-        <v>290.4696816697827</v>
+        <v>4841527.553427847</v>
       </c>
       <c r="H86">
-        <v>2175.812077074644</v>
+        <v>3986161.616081567</v>
       </c>
       <c r="I86">
-        <v>-89.47910002289638</v>
+        <v>1116215.93085149</v>
       </c>
       <c r="J86">
-        <v>345.0382117671288</v>
+        <v>4841724.605161016</v>
       </c>
       <c r="K86">
-        <v>2063.276806297218</v>
+        <v>3986739.0299544</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3446,7 +3443,7 @@
         <v>25</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -3458,22 +3455,22 @@
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>25.14205529974472</v>
+        <v>1116413.322842763</v>
       </c>
       <c r="G87">
-        <v>306.6571597573337</v>
+        <v>4841544.066269849</v>
       </c>
       <c r="H87">
-        <v>2190.616789733755</v>
+        <v>3986173.832468661</v>
       </c>
       <c r="I87">
-        <v>-50.9482757741652</v>
+        <v>1116278.881269621</v>
       </c>
       <c r="J87">
-        <v>310.9051680448895</v>
+        <v>4841675.953477021</v>
       </c>
       <c r="K87">
-        <v>1919.139426362265</v>
+        <v>3986573.217665631</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3481,7 +3478,7 @@
         <v>25</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -3493,22 +3490,22 @@
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>24.65417739163479</v>
+        <v>1116412.367968965</v>
       </c>
       <c r="G88">
-        <v>322.8446378448846</v>
+        <v>4841560.579111851</v>
       </c>
       <c r="H88">
-        <v>2204.84215013768</v>
+        <v>3986185.570792346</v>
       </c>
       <c r="I88">
-        <v>-11.46866542601751</v>
+        <v>1116343.381783886</v>
       </c>
       <c r="J88">
-        <v>276.7721243226503</v>
+        <v>4841627.301793026</v>
       </c>
       <c r="K88">
-        <v>1761.833627910617</v>
+        <v>3986392.256734542</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3516,7 +3513,7 @@
         <v>25</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -3528,22 +3525,22 @@
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>24.19362909983649</v>
+        <v>1116411.466584645</v>
       </c>
       <c r="G89">
-        <v>339.0321159324356</v>
+        <v>4841577.091953853</v>
       </c>
       <c r="H89">
-        <v>2218.531799377924</v>
+        <v>3986196.867063888</v>
       </c>
       <c r="I89">
-        <v>28.98309400637789</v>
+        <v>1116409.470563974</v>
       </c>
       <c r="J89">
-        <v>242.6390806004113</v>
+        <v>4841578.650109032</v>
       </c>
       <c r="K89">
-        <v>1591.359410942275</v>
+        <v>3986196.147161132</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3551,7 +3548,7 @@
         <v>25</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
@@ -3563,22 +3560,22 @@
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>23.75795164326781</v>
+        <v>1116410.613877481</v>
       </c>
       <c r="G90">
-        <v>355.2195940199865</v>
+        <v>4841593.604795855</v>
       </c>
       <c r="H90">
-        <v>2231.724625951231</v>
+        <v>3986207.753372862</v>
       </c>
       <c r="I90">
-        <v>70.43094079985968</v>
+        <v>1116477.186719471</v>
       </c>
       <c r="J90">
-        <v>208.506036878172</v>
+        <v>4841529.998425038</v>
       </c>
       <c r="K90">
-        <v>1407.716775457237</v>
+        <v>3985984.888945401</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3586,7 +3583,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -3598,22 +3595,22 @@
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>23.34498507382833</v>
+        <v>1116409.805620026</v>
       </c>
       <c r="G91">
-        <v>371.4070721075374</v>
+        <v>4841610.117637858</v>
       </c>
       <c r="H91">
-        <v>2244.455431742817</v>
+        <v>3986218.258436699</v>
       </c>
       <c r="I91">
-        <v>112.8994026893115</v>
+        <v>1116546.570323</v>
       </c>
       <c r="J91">
-        <v>174.372993155933</v>
+        <v>4841481.346741043</v>
       </c>
       <c r="K91">
-        <v>1210.905721455505</v>
+        <v>3985758.482087349</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3621,7 +3618,7 @@
         <v>25</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -3633,22 +3630,22 @@
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>22.95282316206833</v>
+        <v>1116409.038081411</v>
       </c>
       <c r="G92">
-        <v>387.5945501950883</v>
+        <v>4841626.63047986</v>
       </c>
       <c r="H92">
-        <v>2256.755485291635</v>
+        <v>3986228.408057221</v>
       </c>
       <c r="I92">
-        <v>156.413611382522</v>
+        <v>1116617.662433935</v>
       </c>
       <c r="J92">
-        <v>140.2399494336938</v>
+        <v>4841432.695057048</v>
       </c>
       <c r="K92">
-        <v>1000.926248937076</v>
+        <v>3985516.926586976</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3656,7 +3653,7 @@
         <v>25</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -3668,22 +3665,22 @@
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>22.57977633452312</v>
+        <v>1116408.307954805</v>
       </c>
       <c r="G93">
-        <v>403.7820282826393</v>
+        <v>4841643.143321862</v>
       </c>
       <c r="H93">
-        <v>2268.65298448315</v>
+        <v>3986238.225502444</v>
       </c>
       <c r="I93">
-        <v>200.9993174324654</v>
+        <v>1116690.505122697</v>
       </c>
       <c r="J93">
-        <v>106.1069057114546</v>
+        <v>4841384.043373054</v>
       </c>
       <c r="K93">
-        <v>777.7783579019535</v>
+        <v>3985260.222444282</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3691,7 +3688,7 @@
         <v>25</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -3703,22 +3700,22 @@
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>22.22434101829504</v>
+        <v>1116407.612297419</v>
       </c>
       <c r="G94">
-        <v>419.9695063701902</v>
+        <v>4841659.656163864</v>
       </c>
       <c r="H94">
-        <v>2280.173445899658</v>
+        <v>3986247.731827856</v>
       </c>
       <c r="I94">
-        <v>246.6829054757904</v>
+        <v>1116765.141495656</v>
       </c>
       <c r="J94">
-        <v>71.97386198921552</v>
+        <v>4841335.391689059</v>
       </c>
       <c r="K94">
-        <v>541.4620483501361</v>
+        <v>3984988.369659267</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3726,7 +3723,7 @@
         <v>25</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -3738,22 +3735,22 @@
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>21.88517412407146</v>
+        <v>1116406.948480561</v>
       </c>
       <c r="G95">
-        <v>436.1569844577411</v>
+        <v>4841676.169005866</v>
       </c>
       <c r="H95">
-        <v>2291.340034351299</v>
+        <v>3986256.946148335</v>
       </c>
       <c r="I95">
-        <v>293.491409846553</v>
+        <v>1116841.615720635</v>
       </c>
       <c r="J95">
-        <v>37.84081826697631</v>
+        <v>4841286.740005065</v>
       </c>
       <c r="K95">
-        <v>291.9773202816228</v>
+        <v>3984701.368231931</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3761,7 +3758,7 @@
         <v>25</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -3773,22 +3770,22 @@
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>21.5610716800359</v>
+        <v>1116406.314147818</v>
       </c>
       <c r="G96">
-        <v>452.3444625452921</v>
+        <v>4841692.681847868</v>
       </c>
       <c r="H96">
-        <v>2302.173843288473</v>
+        <v>3986265.88586954</v>
       </c>
       <c r="I96">
-        <v>341.4525305744108</v>
+        <v>1116919.973053049</v>
       </c>
       <c r="J96">
-        <v>3.707774544737097</v>
+        <v>4841238.088321069</v>
       </c>
       <c r="K96">
-        <v>29.32417369641466</v>
+        <v>3984399.218162275</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3796,7 +3793,7 @@
         <v>25</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -3808,22 +3805,22 @@
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>21.25095084178157</v>
+        <v>1116405.70717985</v>
       </c>
       <c r="G97">
-        <v>468.531940632843</v>
+        <v>4841709.194689871</v>
       </c>
       <c r="H97">
-        <v>2312.694134627623</v>
+        <v>3986274.566885801</v>
       </c>
       <c r="I97">
-        <v>390.5946497767698</v>
+        <v>1117000.259862687</v>
       </c>
       <c r="J97">
-        <v>-30.42526917750196</v>
+        <v>4841189.436637076</v>
       </c>
       <c r="K97">
-        <v>-246.4973914054877</v>
+        <v>3984081.919450297</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3831,7 +3828,7 @@
         <v>25</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -3843,22 +3840,22 @@
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>20.95383466555148</v>
+        <v>1116405.125664584</v>
       </c>
       <c r="G98">
-        <v>484.7194187203939</v>
+        <v>4841725.707531873</v>
       </c>
       <c r="H98">
-        <v>2322.918544841883</v>
+        <v>3986283.003750187</v>
       </c>
       <c r="I98">
-        <v>440.9468484545663</v>
+        <v>1117082.523661149</v>
       </c>
       <c r="J98">
-        <v>-64.55831289974117</v>
+        <v>4841140.784953081</v>
       </c>
       <c r="K98">
-        <v>-535.4873750240861</v>
+        <v>3983749.472095998</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3866,7 +3863,7 @@
         <v>25</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -3878,22 +3875,22 @@
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>20.66883915691028</v>
+        <v>1116404.567871868</v>
       </c>
       <c r="G99">
-        <v>500.9068968079449</v>
+        <v>4841742.220373875</v>
       </c>
       <c r="H99">
-        <v>2332.863262855546</v>
+        <v>3986291.209821294</v>
       </c>
       <c r="I99">
-        <v>492.5389237016306</v>
+        <v>1117166.813129967</v>
       </c>
       <c r="J99">
-        <v>-98.69135662198038</v>
+        <v>4841092.133269086</v>
       </c>
       <c r="K99">
-        <v>-837.64577715938</v>
+        <v>3983401.876099379</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3901,7 +3898,7 @@
         <v>25</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -3913,22 +3910,22 @@
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>20.39516220370192</v>
+        <v>1116404.032231809</v>
       </c>
       <c r="G100">
-        <v>517.0943748954958</v>
+        <v>4841758.733215877</v>
       </c>
       <c r="H100">
-        <v>2342.543184248498</v>
+        <v>3986299.197390489</v>
       </c>
       <c r="I100">
-        <v>545.4014063378148</v>
+        <v>1117253.178149409</v>
       </c>
       <c r="J100">
-        <v>-132.8244003442196</v>
+        <v>4841043.481585091</v>
       </c>
       <c r="K100">
-        <v>-1152.972597811369</v>
+        <v>3983039.131460438</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3936,7 +3933,7 @@
         <v>25</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -3948,22 +3945,22 @@
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>20.13207407771443</v>
+        <v>1116403.517316184</v>
       </c>
       <c r="G101">
-        <v>533.2818529830466</v>
+        <v>4841775.246057879</v>
       </c>
       <c r="H101">
-        <v>2351.972045458349</v>
+        <v>3986306.977792652</v>
       </c>
       <c r="I101">
-        <v>599.5655789763225</v>
+        <v>1117341.669828002</v>
       </c>
       <c r="J101">
-        <v>-166.9574440664585</v>
+        <v>4840994.829901096</v>
       </c>
       <c r="K101">
-        <v>-1481.46783698005</v>
+        <v>3982661.238179177</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3971,7 +3968,7 @@
         <v>25</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -3983,22 +3980,22 @@
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>19.87890924891541</v>
+        <v>1116403.021822419</v>
       </c>
       <c r="G102">
-        <v>549.4693310705976</v>
+        <v>4841791.758899881</v>
       </c>
       <c r="H102">
-        <v>2361.162541015159</v>
+        <v>3986314.561502913</v>
       </c>
       <c r="I102">
-        <v>655.063494535929</v>
+        <v>1117432.340532768</v>
       </c>
       <c r="J102">
-        <v>-201.0904877886977</v>
+        <v>4840946.178217103</v>
       </c>
       <c r="K102">
-        <v>-1823.131494665428</v>
+        <v>3982268.196255595</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4006,7 +4003,7 @@
         <v>25</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -4018,22 +4015,22 @@
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>19.63505930318589</v>
+        <v>1116402.544559727</v>
       </c>
       <c r="G103">
-        <v>565.6568091581486</v>
+        <v>4841808.271741884</v>
       </c>
       <c r="H103">
-        <v>2370.126426319654</v>
+        <v>3986321.958221463</v>
       </c>
       <c r="I103">
-        <v>711.9279952090442</v>
+        <v>1117525.243920224</v>
       </c>
       <c r="J103">
-        <v>-235.2235315109369</v>
+        <v>4840897.526533107</v>
       </c>
       <c r="K103">
-        <v>-2177.963570867502</v>
+        <v>3981860.005689691</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4041,7 +4038,7 @@
         <v>25</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -4053,22 +4050,22 @@
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>19.39996679198057</v>
+        <v>1116402.084437071</v>
       </c>
       <c r="G104">
-        <v>581.8442872456994</v>
+        <v>4841824.784583886</v>
       </c>
       <c r="H104">
-        <v>2378.874608052763</v>
+        <v>3986329.176948153</v>
       </c>
       <c r="I104">
-        <v>770.1927318968535</v>
+        <v>1117620.434968127</v>
       </c>
       <c r="J104">
-        <v>-269.3565752331761</v>
+        <v>4840848.874849113</v>
       </c>
       <c r="K104">
-        <v>-2545.964065586271</v>
+        <v>3981436.666481467</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4076,7 +4073,7 @@
         <v>25</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -4088,22 +4085,22 @@
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>19.17311987239929</v>
+        <v>1116401.640452672</v>
       </c>
       <c r="G105">
-        <v>598.0317653332504</v>
+        <v>4841841.297425888</v>
       </c>
       <c r="H105">
-        <v>2387.417223960748</v>
+        <v>3986336.226048338</v>
       </c>
       <c r="I105">
-        <v>829.8921841230259</v>
+        <v>1117717.97000801</v>
       </c>
       <c r="J105">
-        <v>-303.4896189554153</v>
+        <v>4840800.223165118</v>
       </c>
       <c r="K105">
-        <v>-2927.132978821735</v>
+        <v>3980998.178630922</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4111,7 +4108,7 @@
         <v>25</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -4123,22 +4120,22 @@
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>18.9540476203789</v>
+        <v>1116401.21168484</v>
       </c>
       <c r="G106">
-        <v>614.2192434208013</v>
+        <v>4841857.81026789</v>
       </c>
       <c r="H106">
-        <v>2395.763713479808</v>
+        <v>3986343.113311143</v>
       </c>
       <c r="I106">
-        <v>891.0616804377775</v>
+        <v>1117817.906758519</v>
       </c>
       <c r="J106">
-        <v>-337.6226626776542</v>
+        <v>4840751.571481124</v>
       </c>
       <c r="K106">
-        <v>-3321.470310573891</v>
+        <v>3980544.542138056</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4146,7 +4143,7 @@
         <v>25</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -4158,1877 +4155,22 @@
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>18.74231591934773</v>
+        <v>1116400.797283921</v>
       </c>
       <c r="G107">
-        <v>630.4067215083522</v>
+        <v>4841874.323109892</v>
       </c>
       <c r="H107">
-        <v>2403.922880434009</v>
+        <v>3986349.846001211</v>
       </c>
       <c r="I107">
-        <v>953.7374193243761</v>
+        <v>1117920.30435957</v>
       </c>
       <c r="J107">
-        <v>-371.7557063998934</v>
+        <v>4840702.919797129</v>
       </c>
       <c r="K107">
-        <v>-3728.976060842745</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108">
-        <v>25</v>
-      </c>
-      <c r="B108" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" t="s">
-        <v>17</v>
-      </c>
-      <c r="E108">
-        <v>152.142</v>
-      </c>
-      <c r="F108">
-        <v>327.7349322056049</v>
-      </c>
-      <c r="G108">
-        <v>-113.6960484277978</v>
-      </c>
-      <c r="H108">
-        <v>968.7233272425156</v>
-      </c>
-      <c r="I108">
-        <v>-1463.852562475845</v>
-      </c>
-      <c r="J108">
-        <v>1570.485239070487</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109">
-        <v>25</v>
-      </c>
-      <c r="B109" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" t="s">
-        <v>17</v>
-      </c>
-      <c r="E109">
-        <v>153.142</v>
-      </c>
-      <c r="F109">
-        <v>327.7349322056049</v>
-      </c>
-      <c r="G109">
-        <v>-113.6960484277978</v>
-      </c>
-      <c r="H109">
-        <v>968.7233272425156</v>
-      </c>
-      <c r="I109">
-        <v>-1434.952215037728</v>
-      </c>
-      <c r="J109">
-        <v>1532.281938480055</v>
-      </c>
-      <c r="K109">
-        <v>377.5510180913853</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110">
-        <v>25</v>
-      </c>
-      <c r="B110" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" t="s">
-        <v>17</v>
-      </c>
-      <c r="E110">
-        <v>154.142</v>
-      </c>
-      <c r="F110">
-        <v>327.7349322056049</v>
-      </c>
-      <c r="G110">
-        <v>-113.6960484277978</v>
-      </c>
-      <c r="H110">
-        <v>968.7233272425156</v>
-      </c>
-      <c r="I110">
-        <v>-1405.340223131779</v>
-      </c>
-      <c r="J110">
-        <v>1494.078637889622</v>
-      </c>
-      <c r="K110">
-        <v>736.2756117889968</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111">
-        <v>25</v>
-      </c>
-      <c r="B111" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111">
-        <v>155.142</v>
-      </c>
-      <c r="F111">
-        <v>327.7349322056049</v>
-      </c>
-      <c r="G111">
-        <v>-113.6960484277978</v>
-      </c>
-      <c r="H111">
-        <v>968.7233272425156</v>
-      </c>
-      <c r="I111">
-        <v>-1374.999063167679</v>
-      </c>
-      <c r="J111">
-        <v>1455.87533729919</v>
-      </c>
-      <c r="K111">
-        <v>1076.173781092837</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112">
-        <v>25</v>
-      </c>
-      <c r="B112" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112">
-        <v>156.142</v>
-      </c>
-      <c r="F112">
-        <v>327.7349322056049</v>
-      </c>
-      <c r="G112">
-        <v>-113.6960484277978</v>
-      </c>
-      <c r="H112">
-        <v>968.7233272425156</v>
-      </c>
-      <c r="I112">
-        <v>-1343.910780052819</v>
-      </c>
-      <c r="J112">
-        <v>1417.672036708758</v>
-      </c>
-      <c r="K112">
-        <v>1397.245526002903</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113">
-        <v>25</v>
-      </c>
-      <c r="B113" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" t="s">
-        <v>17</v>
-      </c>
-      <c r="E113">
-        <v>157.142</v>
-      </c>
-      <c r="F113">
-        <v>327.7349322056049</v>
-      </c>
-      <c r="G113">
-        <v>-113.6960484277978</v>
-      </c>
-      <c r="H113">
-        <v>968.7233272425156</v>
-      </c>
-      <c r="I113">
-        <v>-1312.056976566951</v>
-      </c>
-      <c r="J113">
-        <v>1379.468736118325</v>
-      </c>
-      <c r="K113">
-        <v>1699.490846519199</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114">
-        <v>25</v>
-      </c>
-      <c r="B114" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" t="s">
-        <v>17</v>
-      </c>
-      <c r="E114">
-        <v>158.142</v>
-      </c>
-      <c r="F114">
-        <v>327.7349322056049</v>
-      </c>
-      <c r="G114">
-        <v>-113.6960484277978</v>
-      </c>
-      <c r="H114">
-        <v>968.7233272425156</v>
-      </c>
-      <c r="I114">
-        <v>-1279.418802475205</v>
-      </c>
-      <c r="J114">
-        <v>1341.265435527893</v>
-      </c>
-      <c r="K114">
-        <v>1982.909742641721</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115">
-        <v>25</v>
-      </c>
-      <c r="B115" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" t="s">
-        <v>17</v>
-      </c>
-      <c r="E115">
-        <v>159.142</v>
-      </c>
-      <c r="F115">
-        <v>327.7349322056049</v>
-      </c>
-      <c r="G115">
-        <v>-113.6960484277978</v>
-      </c>
-      <c r="H115">
-        <v>968.7233272425156</v>
-      </c>
-      <c r="I115">
-        <v>-1245.976943373021</v>
-      </c>
-      <c r="J115">
-        <v>1303.06213493746</v>
-      </c>
-      <c r="K115">
-        <v>2247.502214370471</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116">
-        <v>25</v>
-      </c>
-      <c r="B116" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" t="s">
-        <v>15</v>
-      </c>
-      <c r="D116" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116">
-        <v>160.142</v>
-      </c>
-      <c r="F116">
-        <v>327.7349322056049</v>
-      </c>
-      <c r="G116">
-        <v>-94.92163049915342</v>
-      </c>
-      <c r="H116">
-        <v>968.7233272425156</v>
-      </c>
-      <c r="I116">
-        <v>-1211.711609256391</v>
-      </c>
-      <c r="J116">
-        <v>1264.858834347028</v>
-      </c>
-      <c r="K116">
-        <v>2493.268261705448</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117">
-        <v>25</v>
-      </c>
-      <c r="B117" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" t="s">
-        <v>17</v>
-      </c>
-      <c r="E117">
-        <v>161.142</v>
-      </c>
-      <c r="F117">
-        <v>254.3605397881179</v>
-      </c>
-      <c r="G117">
-        <v>-76.14721257050901</v>
-      </c>
-      <c r="H117">
-        <v>1193.46062056944</v>
-      </c>
-      <c r="I117">
-        <v>-1176.602522810668</v>
-      </c>
-      <c r="J117">
-        <v>1226.655533756596</v>
-      </c>
-      <c r="K117">
-        <v>2720.207884646652</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118">
-        <v>25</v>
-      </c>
-      <c r="B118" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" t="s">
-        <v>17</v>
-      </c>
-      <c r="E118">
-        <v>162.142</v>
-      </c>
-      <c r="F118">
-        <v>211.2567650997098</v>
-      </c>
-      <c r="G118">
-        <v>-57.37279464186461</v>
-      </c>
-      <c r="H118">
-        <v>1327.325645976478</v>
-      </c>
-      <c r="I118">
-        <v>-1140.628907410986</v>
-      </c>
-      <c r="J118">
-        <v>1188.452233166163</v>
-      </c>
-      <c r="K118">
-        <v>2928.321083194085</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119">
-        <v>25</v>
-      </c>
-      <c r="B119" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" t="s">
-        <v>15</v>
-      </c>
-      <c r="D119" t="s">
-        <v>17</v>
-      </c>
-      <c r="E119">
-        <v>163.142</v>
-      </c>
-      <c r="F119">
-        <v>184.0465002634805</v>
-      </c>
-      <c r="G119">
-        <v>-38.5983767132202</v>
-      </c>
-      <c r="H119">
-        <v>1422.989932043704</v>
-      </c>
-      <c r="I119">
-        <v>-1103.769474827206</v>
-      </c>
-      <c r="J119">
-        <v>1150.248932575731</v>
-      </c>
-      <c r="K119">
-        <v>3117.607857347746</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120">
-        <v>25</v>
-      </c>
-      <c r="B120" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" t="s">
-        <v>17</v>
-      </c>
-      <c r="E120">
-        <v>164.142</v>
-      </c>
-      <c r="F120">
-        <v>165.0701720196436</v>
-      </c>
-      <c r="G120">
-        <v>-19.82395878457578</v>
-      </c>
-      <c r="H120">
-        <v>1497.483660352073</v>
-      </c>
-      <c r="I120">
-        <v>-1066.002412626108</v>
-      </c>
-      <c r="J120">
-        <v>1112.045631985299</v>
-      </c>
-      <c r="K120">
-        <v>3288.068207107633</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121">
-        <v>25</v>
-      </c>
-      <c r="B121" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" t="s">
-        <v>17</v>
-      </c>
-      <c r="E121">
-        <v>165.142</v>
-      </c>
-      <c r="F121">
-        <v>150.9132628735491</v>
-      </c>
-      <c r="G121">
-        <v>-1.049540855931385</v>
-      </c>
-      <c r="H121">
-        <v>1558.499802096894</v>
-      </c>
-      <c r="I121">
-        <v>-1027.305371263367</v>
-      </c>
-      <c r="J121">
-        <v>1073.842331394866</v>
-      </c>
-      <c r="K121">
-        <v>3439.702132473747</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122">
-        <v>25</v>
-      </c>
-      <c r="B122" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122">
-        <v>166.142</v>
-      </c>
-      <c r="F122">
-        <v>139.844536875055</v>
-      </c>
-      <c r="G122">
-        <v>17.72487707271303</v>
-      </c>
-      <c r="H122">
-        <v>1610.176020192283</v>
-      </c>
-      <c r="I122">
-        <v>-987.6554508576943</v>
-      </c>
-      <c r="J122">
-        <v>1035.639030804434</v>
-      </c>
-      <c r="K122">
-        <v>3572.50963344609</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123">
-        <v>25</v>
-      </c>
-      <c r="B123" t="s">
-        <v>12</v>
-      </c>
-      <c r="C123" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123">
-        <v>167.142</v>
-      </c>
-      <c r="F123">
-        <v>130.8891316019065</v>
-      </c>
-      <c r="G123">
-        <v>36.49929500135744</v>
-      </c>
-      <c r="H123">
-        <v>1654.995727748106</v>
-      </c>
-      <c r="I123">
-        <v>-947.0291876392894</v>
-      </c>
-      <c r="J123">
-        <v>997.4357302140015</v>
-      </c>
-      <c r="K123">
-        <v>3686.49071002466</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124">
-        <v>25</v>
-      </c>
-      <c r="B124" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" t="s">
-        <v>17</v>
-      </c>
-      <c r="E124">
-        <v>168.142</v>
-      </c>
-      <c r="F124">
-        <v>123.4529542355317</v>
-      </c>
-      <c r="G124">
-        <v>55.27371293000184</v>
-      </c>
-      <c r="H124">
-        <v>1694.567094444071</v>
-      </c>
-      <c r="I124">
-        <v>-905.4025400646084</v>
-      </c>
-      <c r="J124">
-        <v>959.232429623569</v>
-      </c>
-      <c r="K124">
-        <v>3781.645362209458</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125">
-        <v>25</v>
-      </c>
-      <c r="B125" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" t="s">
-        <v>17</v>
-      </c>
-      <c r="E125">
-        <v>169.142</v>
-      </c>
-      <c r="F125">
-        <v>117.1513534203572</v>
-      </c>
-      <c r="G125">
-        <v>74.04813085864627</v>
-      </c>
-      <c r="H125">
-        <v>1729.99143053871</v>
-      </c>
-      <c r="I125">
-        <v>-862.7508745892142</v>
-      </c>
-      <c r="J125">
-        <v>921.0291290331367</v>
-      </c>
-      <c r="K125">
-        <v>3857.973590000483</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126">
-        <v>25</v>
-      </c>
-      <c r="B126" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" t="s">
-        <v>17</v>
-      </c>
-      <c r="E126">
-        <v>170.142</v>
-      </c>
-      <c r="F126">
-        <v>111.7231391045681</v>
-      </c>
-      <c r="G126">
-        <v>92.82254878729067</v>
-      </c>
-      <c r="H126">
-        <v>1762.056080886634</v>
-      </c>
-      <c r="I126">
-        <v>-819.048951090301</v>
-      </c>
-      <c r="J126">
-        <v>882.8258284427044</v>
-      </c>
-      <c r="K126">
-        <v>3915.475393397735</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127">
-        <v>25</v>
-      </c>
-      <c r="B127" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" t="s">
-        <v>17</v>
-      </c>
-      <c r="E127">
-        <v>171.142</v>
-      </c>
-      <c r="F127">
-        <v>106.9840275216359</v>
-      </c>
-      <c r="G127">
-        <v>111.5969667159351</v>
-      </c>
-      <c r="H127">
-        <v>1791.343477768775</v>
-      </c>
-      <c r="I127">
-        <v>-774.2709079302598</v>
-      </c>
-      <c r="J127">
-        <v>844.6225278522719</v>
-      </c>
-      <c r="K127">
-        <v>3954.150772401215</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128">
-        <v>25</v>
-      </c>
-      <c r="B128" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" t="s">
-        <v>17</v>
-      </c>
-      <c r="E128">
-        <v>172.142</v>
-      </c>
-      <c r="F128">
-        <v>102.7998399091829</v>
-      </c>
-      <c r="G128">
-        <v>130.3713846445795</v>
-      </c>
-      <c r="H128">
-        <v>1818.296605833519</v>
-      </c>
-      <c r="I128">
-        <v>-728.3902466524466</v>
-      </c>
-      <c r="J128">
-        <v>806.4192272618396</v>
-      </c>
-      <c r="K128">
-        <v>3973.999727010923</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129">
-        <v>25</v>
-      </c>
-      <c r="B129" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" t="s">
-        <v>17</v>
-      </c>
-      <c r="E129">
-        <v>173.142</v>
-      </c>
-      <c r="F129">
-        <v>99.07027715256879</v>
-      </c>
-      <c r="G129">
-        <v>149.1458025732239</v>
-      </c>
-      <c r="H129">
-        <v>1843.260246534046</v>
-      </c>
-      <c r="I129">
-        <v>-681.3798163001017</v>
-      </c>
-      <c r="J129">
-        <v>768.2159266714073</v>
-      </c>
-      <c r="K129">
-        <v>3975.022257226858</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130">
-        <v>25</v>
-      </c>
-      <c r="B130" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" t="s">
-        <v>17</v>
-      </c>
-      <c r="E130">
-        <v>174.142</v>
-      </c>
-      <c r="F130">
-        <v>95.71867600963698</v>
-      </c>
-      <c r="G130">
-        <v>167.9202205018683</v>
-      </c>
-      <c r="H130">
-        <v>1866.508018315502</v>
-      </c>
-      <c r="I130">
-        <v>-633.2117973491333</v>
-      </c>
-      <c r="J130">
-        <v>730.0126260809748</v>
-      </c>
-      <c r="K130">
-        <v>3957.218363049021</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131">
-        <v>25</v>
-      </c>
-      <c r="B131" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" t="s">
-        <v>17</v>
-      </c>
-      <c r="E131">
-        <v>175.142</v>
-      </c>
-      <c r="F131">
-        <v>92.68530793748369</v>
-      </c>
-      <c r="G131">
-        <v>186.6946384305127</v>
-      </c>
-      <c r="H131">
-        <v>1888.260706345807</v>
-      </c>
-      <c r="I131">
-        <v>-583.8576852452619</v>
-      </c>
-      <c r="J131">
-        <v>691.8093254905425</v>
-      </c>
-      <c r="K131">
-        <v>3920.588044477411</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132">
-        <v>25</v>
-      </c>
-      <c r="B132" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" t="s">
-        <v>17</v>
-      </c>
-      <c r="E132">
-        <v>176.142</v>
-      </c>
-      <c r="F132">
-        <v>89.92285991277457</v>
-      </c>
-      <c r="G132">
-        <v>205.4690563591572</v>
-      </c>
-      <c r="H132">
-        <v>1908.699046026222</v>
-      </c>
-      <c r="I132">
-        <v>-533.2882735357833</v>
-      </c>
-      <c r="J132">
-        <v>653.6060249001101</v>
-      </c>
-      <c r="K132">
-        <v>3865.131301512029</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133">
-        <v>25</v>
-      </c>
-      <c r="B133" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133">
-        <v>177.142</v>
-      </c>
-      <c r="F133">
-        <v>87.39330533446152</v>
-      </c>
-      <c r="G133">
-        <v>224.2434742878015</v>
-      </c>
-      <c r="H133">
-        <v>1927.972859691739</v>
-      </c>
-      <c r="I133">
-        <v>-481.4736365859648</v>
-      </c>
-      <c r="J133">
-        <v>615.4027243096776</v>
-      </c>
-      <c r="K133">
-        <v>3790.848134152874</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134">
-        <v>25</v>
-      </c>
-      <c r="B134" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134">
-        <v>178.142</v>
-      </c>
-      <c r="F134">
-        <v>85.06568688392572</v>
-      </c>
-      <c r="G134">
-        <v>243.0178922164459</v>
-      </c>
-      <c r="H134">
-        <v>1946.207727812596</v>
-      </c>
-      <c r="I134">
-        <v>-428.383111869849</v>
-      </c>
-      <c r="J134">
-        <v>577.1994237192454</v>
-      </c>
-      <c r="K134">
-        <v>3697.738542399947</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135">
-        <v>25</v>
-      </c>
-      <c r="B135" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" t="s">
-        <v>17</v>
-      </c>
-      <c r="E135">
-        <v>179.142</v>
-      </c>
-      <c r="F135">
-        <v>82.91451328228037</v>
-      </c>
-      <c r="G135">
-        <v>261.7923101450904</v>
-      </c>
-      <c r="H135">
-        <v>1963.509952345365</v>
-      </c>
-      <c r="I135">
-        <v>-373.9852818249854</v>
-      </c>
-      <c r="J135">
-        <v>538.9961231288129</v>
-      </c>
-      <c r="K135">
-        <v>3585.802526253246</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136">
-        <v>25</v>
-      </c>
-      <c r="B136" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" t="s">
-        <v>17</v>
-      </c>
-      <c r="E136">
-        <v>180.142</v>
-      </c>
-      <c r="F136">
-        <v>80.91857882652278</v>
-      </c>
-      <c r="G136">
-        <v>280.5667280737347</v>
-      </c>
-      <c r="H136">
-        <v>1979.970311435772</v>
-      </c>
-      <c r="I136">
-        <v>-318.2479552603533</v>
-      </c>
-      <c r="J136">
-        <v>500.7928225383805</v>
-      </c>
-      <c r="K136">
-        <v>3455.040085712774</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137">
-        <v>25</v>
-      </c>
-      <c r="B137" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" t="s">
-        <v>17</v>
-      </c>
-      <c r="E137">
-        <v>181.142</v>
-      </c>
-      <c r="F137">
-        <v>79.06008005670715</v>
-      </c>
-      <c r="G137">
-        <v>299.3411460023792</v>
-      </c>
-      <c r="H137">
-        <v>1995.666942319118</v>
-      </c>
-      <c r="I137">
-        <v>-261.1381483064673</v>
-      </c>
-      <c r="J137">
-        <v>462.5895219479482</v>
-      </c>
-      <c r="K137">
-        <v>3305.45122077853</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138">
-        <v>25</v>
-      </c>
-      <c r="B138" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" t="s">
-        <v>17</v>
-      </c>
-      <c r="E138">
-        <v>182.142</v>
-      </c>
-      <c r="F138">
-        <v>77.32394508413047</v>
-      </c>
-      <c r="G138">
-        <v>318.1155639310236</v>
-      </c>
-      <c r="H138">
-        <v>2010.667584584615</v>
-      </c>
-      <c r="I138">
-        <v>-202.622064896401</v>
-      </c>
-      <c r="J138">
-        <v>424.3862213575158</v>
-      </c>
-      <c r="K138">
-        <v>3137.035931450512</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139">
-        <v>25</v>
-      </c>
-      <c r="B139" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" t="s">
-        <v>17</v>
-      </c>
-      <c r="E139">
-        <v>183.142</v>
-      </c>
-      <c r="F139">
-        <v>75.6973176427571</v>
-      </c>
-      <c r="G139">
-        <v>336.889981859668</v>
-      </c>
-      <c r="H139">
-        <v>2025.031346893228</v>
-      </c>
-      <c r="I139">
-        <v>-142.6650767661711</v>
-      </c>
-      <c r="J139">
-        <v>386.1829207670835</v>
-      </c>
-      <c r="K139">
-        <v>2949.794217728723</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140">
-        <v>25</v>
-      </c>
-      <c r="B140" t="s">
-        <v>12</v>
-      </c>
-      <c r="C140" t="s">
-        <v>15</v>
-      </c>
-      <c r="D140" t="s">
-        <v>17</v>
-      </c>
-      <c r="E140">
-        <v>184.142</v>
-      </c>
-      <c r="F140">
-        <v>74.16915539768445</v>
-      </c>
-      <c r="G140">
-        <v>355.6643997883124</v>
-      </c>
-      <c r="H140">
-        <v>2038.810113695899</v>
-      </c>
-      <c r="I140">
-        <v>-81.23170296265187</v>
-      </c>
-      <c r="J140">
-        <v>347.9796201766511</v>
-      </c>
-      <c r="K140">
-        <v>2743.726079613161</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
-      <c r="A141">
-        <v>25</v>
-      </c>
-      <c r="B141" t="s">
-        <v>12</v>
-      </c>
-      <c r="C141" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" t="s">
-        <v>17</v>
-      </c>
-      <c r="E141">
-        <v>185.142</v>
-      </c>
-      <c r="F141">
-        <v>72.72991377840164</v>
-      </c>
-      <c r="G141">
-        <v>374.4388177169568</v>
-      </c>
-      <c r="H141">
-        <v>2052.04967654341</v>
-      </c>
-      <c r="I141">
-        <v>-18.2855888468888</v>
-      </c>
-      <c r="J141">
-        <v>309.7763195862186</v>
-      </c>
-      <c r="K141">
-        <v>2518.831517103826</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
-      <c r="A142">
-        <v>25</v>
-      </c>
-      <c r="B142" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" t="s">
-        <v>17</v>
-      </c>
-      <c r="E142">
-        <v>186.142</v>
-      </c>
-      <c r="F142">
-        <v>71.37129462752924</v>
-      </c>
-      <c r="G142">
-        <v>393.2132356456012</v>
-      </c>
-      <c r="H142">
-        <v>2064.790652260733</v>
-      </c>
-      <c r="I142">
-        <v>46.21051541961198</v>
-      </c>
-      <c r="J142">
-        <v>271.5730189957864</v>
-      </c>
-      <c r="K142">
-        <v>2275.110530200719</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
-      <c r="A143">
-        <v>25</v>
-      </c>
-      <c r="B143" t="s">
-        <v>12</v>
-      </c>
-      <c r="C143" t="s">
-        <v>15</v>
-      </c>
-      <c r="D143" t="s">
-        <v>17</v>
-      </c>
-      <c r="E143">
-        <v>187.142</v>
-      </c>
-      <c r="F143">
-        <v>70.08604453185234</v>
-      </c>
-      <c r="G143">
-        <v>411.9876535742456</v>
-      </c>
-      <c r="H143">
-        <v>2077.069234426243</v>
-      </c>
-      <c r="I143">
-        <v>112.2947769183473</v>
-      </c>
-      <c r="J143">
-        <v>233.3697184053539</v>
-      </c>
-      <c r="K143">
-        <v>2012.563118903839</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
-      <c r="A144">
-        <v>25</v>
-      </c>
-      <c r="B144" t="s">
-        <v>12</v>
-      </c>
-      <c r="C144" t="s">
-        <v>15</v>
-      </c>
-      <c r="D144" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144">
-        <v>188.142</v>
-      </c>
-      <c r="F144">
-        <v>68.8677916365484</v>
-      </c>
-      <c r="G144">
-        <v>430.76207150289</v>
-      </c>
-      <c r="H144">
-        <v>2088.917813203247</v>
-      </c>
-      <c r="I144">
-        <v>180.0063025600838</v>
-      </c>
-      <c r="J144">
-        <v>195.1664178149217</v>
-      </c>
-      <c r="K144">
-        <v>1731.189283213188</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
-      <c r="A145">
-        <v>25</v>
-      </c>
-      <c r="B145" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145" t="s">
-        <v>15</v>
-      </c>
-      <c r="D145" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145">
-        <v>189.142</v>
-      </c>
-      <c r="F145">
-        <v>67.71091255774552</v>
-      </c>
-      <c r="G145">
-        <v>449.5364894315345</v>
-      </c>
-      <c r="H145">
-        <v>2100.365490264727</v>
-      </c>
-      <c r="I145">
-        <v>249.385162227286</v>
-      </c>
-      <c r="J145">
-        <v>156.9631172244892</v>
-      </c>
-      <c r="K145">
-        <v>1430.989023128763</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
-      <c r="A146">
-        <v>25</v>
-      </c>
-      <c r="B146" t="s">
-        <v>12</v>
-      </c>
-      <c r="C146" t="s">
-        <v>15</v>
-      </c>
-      <c r="D146" t="s">
-        <v>17</v>
-      </c>
-      <c r="E146">
-        <v>190.142</v>
-      </c>
-      <c r="F146">
-        <v>66.6104230475226</v>
-      </c>
-      <c r="G146">
-        <v>468.3109073601788</v>
-      </c>
-      <c r="H146">
-        <v>2111.438509422176</v>
-      </c>
-      <c r="I146">
-        <v>320.4724124864132</v>
-      </c>
-      <c r="J146">
-        <v>118.7598166340568</v>
-      </c>
-      <c r="K146">
-        <v>1111.962338650565</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
-      <c r="A147">
-        <v>25</v>
-      </c>
-      <c r="B147" t="s">
-        <v>12</v>
-      </c>
-      <c r="C147" t="s">
-        <v>15</v>
-      </c>
-      <c r="D147" t="s">
-        <v>17</v>
-      </c>
-      <c r="E147">
-        <v>191.142</v>
-      </c>
-      <c r="F147">
-        <v>65.56188756031389</v>
-      </c>
-      <c r="G147">
-        <v>487.0853252888233</v>
-      </c>
-      <c r="H147">
-        <v>2122.160618994465</v>
-      </c>
-      <c r="I147">
-        <v>393.3101208840992</v>
-      </c>
-      <c r="J147">
-        <v>80.55651604362453</v>
-      </c>
-      <c r="K147">
-        <v>774.1092297785966</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
-      <c r="A148">
-        <v>25</v>
-      </c>
-      <c r="B148" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148" t="s">
-        <v>15</v>
-      </c>
-      <c r="D148" t="s">
-        <v>17</v>
-      </c>
-      <c r="E148">
-        <v>192.142</v>
-      </c>
-      <c r="F148">
-        <v>64.56134397771847</v>
-      </c>
-      <c r="G148">
-        <v>505.8597432174677</v>
-      </c>
-      <c r="H148">
-        <v>2132.553378502828</v>
-      </c>
-      <c r="I148">
-        <v>467.9413908416169</v>
-      </c>
-      <c r="J148">
-        <v>42.35321545319209</v>
-      </c>
-      <c r="K148">
-        <v>417.4296965128541</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
-      <c r="A149">
-        <v>25</v>
-      </c>
-      <c r="B149" t="s">
-        <v>12</v>
-      </c>
-      <c r="C149" t="s">
-        <v>15</v>
-      </c>
-      <c r="D149" t="s">
-        <v>17</v>
-      </c>
-      <c r="E149">
-        <v>193.142</v>
-      </c>
-      <c r="F149">
-        <v>63.60524057845952</v>
-      </c>
-      <c r="G149">
-        <v>524.6341611461121</v>
-      </c>
-      <c r="H149">
-        <v>2142.636419651089</v>
-      </c>
-      <c r="I149">
-        <v>544.4103871623282</v>
-      </c>
-      <c r="J149">
-        <v>4.14991486275964</v>
-      </c>
-      <c r="K149">
-        <v>41.92373885333939</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
-      <c r="A150">
-        <v>25</v>
-      </c>
-      <c r="B150" t="s">
-        <v>12</v>
-      </c>
-      <c r="C150" t="s">
-        <v>15</v>
-      </c>
-      <c r="D150" t="s">
-        <v>17</v>
-      </c>
-      <c r="E150">
-        <v>194.142</v>
-      </c>
-      <c r="F150">
-        <v>62.69038296756327</v>
-      </c>
-      <c r="G150">
-        <v>543.4085790747565</v>
-      </c>
-      <c r="H150">
-        <v>2152.427669531856</v>
-      </c>
-      <c r="I150">
-        <v>622.76236216725</v>
-      </c>
-      <c r="J150">
-        <v>-34.05338572767263</v>
-      </c>
-      <c r="K150">
-        <v>-352.4086431999467</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151">
-        <v>25</v>
-      </c>
-      <c r="B151" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151" t="s">
-        <v>15</v>
-      </c>
-      <c r="D151" t="s">
-        <v>17</v>
-      </c>
-      <c r="E151">
-        <v>195.142</v>
-      </c>
-      <c r="F151">
-        <v>61.81388915736157</v>
-      </c>
-      <c r="G151">
-        <v>562.1829970034008</v>
-      </c>
-      <c r="H151">
-        <v>2161.943542435369</v>
-      </c>
-      <c r="I151">
-        <v>703.043682474173</v>
-      </c>
-      <c r="J151">
-        <v>-72.25668631810507</v>
-      </c>
-      <c r="K151">
-        <v>-765.5674496470064</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="A152">
-        <v>25</v>
-      </c>
-      <c r="B152" t="s">
-        <v>12</v>
-      </c>
-      <c r="C152" t="s">
-        <v>15</v>
-      </c>
-      <c r="D152" t="s">
-        <v>17</v>
-      </c>
-      <c r="E152">
-        <v>196.142</v>
-      </c>
-      <c r="F152">
-        <v>60.97315136102613</v>
-      </c>
-      <c r="G152">
-        <v>580.9574149320454</v>
-      </c>
-      <c r="H152">
-        <v>2171.199105416138</v>
-      </c>
-      <c r="I152">
-        <v>785.3018564361942</v>
-      </c>
-      <c r="J152">
-        <v>-110.4599869085375</v>
-      </c>
-      <c r="K152">
-        <v>-1197.55268048784</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
-      <c r="A153">
-        <v>25</v>
-      </c>
-      <c r="B153" t="s">
-        <v>12</v>
-      </c>
-      <c r="C153" t="s">
-        <v>15</v>
-      </c>
-      <c r="D153" t="s">
-        <v>17</v>
-      </c>
-      <c r="E153">
-        <v>197.142</v>
-      </c>
-      <c r="F153">
-        <v>60.16580334475309</v>
-      </c>
-      <c r="G153">
-        <v>599.7318328606897</v>
-      </c>
-      <c r="H153">
-        <v>2180.20822181122</v>
-      </c>
-      <c r="I153">
-        <v>869.5855622558975</v>
-      </c>
-      <c r="J153">
-        <v>-148.66328749897</v>
-      </c>
-      <c r="K153">
-        <v>-1648.364335722444</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
-      <c r="A154">
-        <v>25</v>
-      </c>
-      <c r="B154" t="s">
-        <v>12</v>
-      </c>
-      <c r="C154" t="s">
-        <v>15</v>
-      </c>
-      <c r="D154" t="s">
-        <v>17</v>
-      </c>
-      <c r="E154">
-        <v>198.142</v>
-      </c>
-      <c r="F154">
-        <v>59.3896924076393</v>
-      </c>
-      <c r="G154">
-        <v>618.5062507893341</v>
-      </c>
-      <c r="H154">
-        <v>2188.983676142334</v>
-      </c>
-      <c r="I154">
-        <v>955.944676791823</v>
-      </c>
-      <c r="J154">
-        <v>-186.866588089402</v>
-      </c>
-      <c r="K154">
-        <v>-2118.002415350818</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="A155">
-        <v>25</v>
-      </c>
-      <c r="B155" t="s">
-        <v>12</v>
-      </c>
-      <c r="C155" t="s">
-        <v>15</v>
-      </c>
-      <c r="D155" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155">
-        <v>199.142</v>
-      </c>
-      <c r="F155">
-        <v>58.64285523364686</v>
-      </c>
-      <c r="G155">
-        <v>637.2806687179785</v>
-      </c>
-      <c r="H155">
-        <v>2197.537283226382</v>
-      </c>
-      <c r="I155">
-        <v>1044.430305074268</v>
-      </c>
-      <c r="J155">
-        <v>-225.0698886798345</v>
-      </c>
-      <c r="K155">
-        <v>-2606.466919372968</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="A156">
-        <v>25</v>
-      </c>
-      <c r="B156" t="s">
-        <v>12</v>
-      </c>
-      <c r="C156" t="s">
-        <v>15</v>
-      </c>
-      <c r="D156" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156">
-        <v>200.142</v>
-      </c>
-      <c r="F156">
-        <v>57.92349699889216</v>
-      </c>
-      <c r="G156">
-        <v>656.055086646623</v>
-      </c>
-      <c r="H156">
-        <v>2205.879983831281</v>
-      </c>
-      <c r="I156">
-        <v>1135.094810547882</v>
-      </c>
-      <c r="J156">
-        <v>-263.2731892702669</v>
-      </c>
-      <c r="K156">
-        <v>-3113.757847788891</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157">
-        <v>25</v>
-      </c>
-      <c r="B157" t="s">
-        <v>12</v>
-      </c>
-      <c r="C157" t="s">
-        <v>15</v>
-      </c>
-      <c r="D157" t="s">
-        <v>17</v>
-      </c>
-      <c r="E157">
-        <v>201.142</v>
-      </c>
-      <c r="F157">
-        <v>57.22997322812088</v>
-      </c>
-      <c r="G157">
-        <v>674.8295045752673</v>
-      </c>
-      <c r="H157">
-        <v>2214.021928820245</v>
-      </c>
-      <c r="I157">
-        <v>1227.991846058969</v>
-      </c>
-      <c r="J157">
-        <v>-301.4764898606994</v>
-      </c>
-      <c r="K157">
-        <v>-3639.875200598586</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158">
-        <v>25</v>
-      </c>
-      <c r="B158" t="s">
-        <v>12</v>
-      </c>
-      <c r="C158" t="s">
-        <v>15</v>
-      </c>
-      <c r="D158" t="s">
-        <v>17</v>
-      </c>
-      <c r="E158">
-        <v>202.142</v>
-      </c>
-      <c r="F158">
-        <v>56.56077398289922</v>
-      </c>
-      <c r="G158">
-        <v>693.6039225039118</v>
-      </c>
-      <c r="H158">
-        <v>2221.972553407915</v>
-      </c>
-      <c r="I158">
-        <v>1323.176385605811</v>
-      </c>
-      <c r="J158">
-        <v>-339.6797904511318</v>
-      </c>
-      <c r="K158">
-        <v>-4184.818977802052</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159">
-        <v>25</v>
-      </c>
-      <c r="B159" t="s">
-        <v>12</v>
-      </c>
-      <c r="C159" t="s">
-        <v>15</v>
-      </c>
-      <c r="D159" t="s">
-        <v>17</v>
-      </c>
-      <c r="E159">
-        <v>203.142</v>
-      </c>
-      <c r="F159">
-        <v>55.91451003551281</v>
-      </c>
-      <c r="G159">
-        <v>712.3783404325562</v>
-      </c>
-      <c r="H159">
-        <v>2229.740642890779</v>
-      </c>
-      <c r="I159">
-        <v>1420.704756870822</v>
-      </c>
-      <c r="J159">
-        <v>-377.8830910415639</v>
-      </c>
-      <c r="K159">
-        <v>-4748.589179399289</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160">
-        <v>25</v>
-      </c>
-      <c r="B160" t="s">
-        <v>12</v>
-      </c>
-      <c r="C160" t="s">
-        <v>15</v>
-      </c>
-      <c r="D160" t="s">
-        <v>17</v>
-      </c>
-      <c r="E160">
-        <v>204.142</v>
-      </c>
-      <c r="F160">
-        <v>55.28990074048207</v>
-      </c>
-      <c r="G160">
-        <v>731.1527583612005</v>
-      </c>
-      <c r="H160">
-        <v>2237.334391000224</v>
-      </c>
-      <c r="I160">
-        <v>1520.634674553779</v>
-      </c>
-      <c r="J160">
-        <v>-416.0863916319963</v>
-      </c>
-      <c r="K160">
-        <v>-5331.185805390302</v>
+        <v>3980075.757002869</v>
       </c>
     </row>
   </sheetData>
